--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.877592229476762</v>
+        <v>0.8775922294767631</v>
       </c>
       <c r="D2">
-        <v>0.891727031646293</v>
+        <v>0.8917270316462936</v>
       </c>
       <c r="E2">
-        <v>0.9009326028463051</v>
+        <v>0.9009326028463062</v>
       </c>
       <c r="F2">
-        <v>0.8420142172747814</v>
+        <v>0.8420142172747829</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.018246941345383</v>
       </c>
       <c r="J2">
-        <v>0.9041714495164596</v>
+        <v>0.9041714495164606</v>
       </c>
       <c r="K2">
-        <v>0.904933706787925</v>
+        <v>0.9049337067879258</v>
       </c>
       <c r="L2">
-        <v>0.9139694615498595</v>
+        <v>0.9139694615498606</v>
       </c>
       <c r="M2">
-        <v>0.8562232308068234</v>
+        <v>0.8562232308068246</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.90321021416104</v>
+        <v>0.9032102141610415</v>
       </c>
       <c r="D3">
-        <v>0.915758165471532</v>
+        <v>0.9157581654715335</v>
       </c>
       <c r="E3">
-        <v>0.9225370124866339</v>
+        <v>0.9225370124866352</v>
       </c>
       <c r="F3">
-        <v>0.8792564542917521</v>
+        <v>0.8792564542917539</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.025544366727257</v>
       </c>
       <c r="J3">
-        <v>0.9267388083073965</v>
+        <v>0.9267388083073982</v>
       </c>
       <c r="K3">
-        <v>0.9275958951655864</v>
+        <v>0.9275958951655878</v>
       </c>
       <c r="L3">
-        <v>0.9342673800573513</v>
+        <v>0.9342673800573528</v>
       </c>
       <c r="M3">
-        <v>0.891709210580232</v>
+        <v>0.8917092105802334</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9171608725854052</v>
+        <v>0.9171608725854071</v>
       </c>
       <c r="D4">
-        <v>0.9288012257899964</v>
+        <v>0.9288012257899984</v>
       </c>
       <c r="E4">
-        <v>0.9343150982072962</v>
+        <v>0.9343150982072979</v>
       </c>
       <c r="F4">
-        <v>0.8989782950669295</v>
+        <v>0.8989782950669317</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.029376171255382</v>
       </c>
       <c r="J4">
-        <v>0.9389503708079651</v>
+        <v>0.9389503708079668</v>
       </c>
       <c r="K4">
-        <v>0.9398423595964313</v>
+        <v>0.9398423595964331</v>
       </c>
       <c r="L4">
-        <v>0.9452767322958385</v>
+        <v>0.9452767322958402</v>
       </c>
       <c r="M4">
-        <v>0.9104710479747398</v>
+        <v>0.9104710479747417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9225850076649754</v>
+        <v>0.9225850076649749</v>
       </c>
       <c r="D5">
-        <v>0.9338646588584689</v>
+        <v>0.9338646588584681</v>
       </c>
       <c r="E5">
-        <v>0.9388972785998637</v>
+        <v>0.9388972785998629</v>
       </c>
       <c r="F5">
-        <v>0.9065441400945417</v>
+        <v>0.9065441400945413</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.030835973135372</v>
       </c>
       <c r="J5">
-        <v>0.9436836274983881</v>
+        <v>0.9436836274983875</v>
       </c>
       <c r="K5">
-        <v>0.9445860959949004</v>
+        <v>0.9445860959948998</v>
       </c>
       <c r="L5">
-        <v>0.9495489289853246</v>
+        <v>0.9495489289853238</v>
       </c>
       <c r="M5">
-        <v>0.9176616336555925</v>
+        <v>0.9176616336555919</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9234734551511905</v>
+        <v>0.9234734551511908</v>
       </c>
       <c r="D6">
-        <v>0.934693613538971</v>
+        <v>0.9346936135389712</v>
       </c>
       <c r="E6">
-        <v>0.939647970697566</v>
+        <v>0.9396479706975666</v>
       </c>
       <c r="F6">
-        <v>0.9077779910073875</v>
+        <v>0.9077779910073881</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.031073386964647</v>
       </c>
       <c r="J6">
-        <v>0.9444581228198037</v>
+        <v>0.9444581228198039</v>
       </c>
       <c r="K6">
-        <v>0.9453621437159562</v>
+        <v>0.9453621437159564</v>
       </c>
       <c r="L6">
-        <v>0.9502482464832035</v>
+        <v>0.9502482464832038</v>
       </c>
       <c r="M6">
-        <v>0.9188338794652299</v>
+        <v>0.9188338794652305</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,13 +614,13 @@
         <v>0.9172349120332419</v>
       </c>
       <c r="D7">
-        <v>0.9288703708142019</v>
+        <v>0.9288703708142018</v>
       </c>
       <c r="E7">
-        <v>0.9343776342960225</v>
+        <v>0.9343776342960223</v>
       </c>
       <c r="F7">
-        <v>0.8990819510107896</v>
+        <v>0.899081951010789</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.02939621510731</v>
       </c>
       <c r="J7">
-        <v>0.939015035373057</v>
+        <v>0.9390150353730568</v>
       </c>
       <c r="K7">
-        <v>0.9399071788089476</v>
+        <v>0.9399071788089475</v>
       </c>
       <c r="L7">
-        <v>0.9453350793182838</v>
+        <v>0.9453350793182836</v>
       </c>
       <c r="M7">
-        <v>0.910569590755305</v>
+        <v>0.9105695907553045</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D8">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E8">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F8">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J8">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K8">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L8">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M8">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D9">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E9">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F9">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J9">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K9">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L9">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M9">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D10">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E10">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F10">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J10">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K10">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L10">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M10">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D11">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E11">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F11">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J11">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K11">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L11">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M11">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D12">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E12">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F12">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J12">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K12">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L12">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M12">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D13">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E13">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F13">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J13">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K13">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L13">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M13">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D14">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E14">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F14">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J14">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K14">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L14">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M14">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D15">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E15">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F15">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J15">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K15">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L15">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M15">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D16">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E16">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F16">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J16">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K16">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L16">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M16">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D17">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E17">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F17">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J17">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K17">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L17">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M17">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D18">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E18">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F18">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J18">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K18">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L18">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M18">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D19">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E19">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F19">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J19">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K19">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L19">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M19">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D20">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E20">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F20">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J20">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K20">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L20">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M20">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D21">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E21">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F21">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J21">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K21">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L21">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M21">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D22">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E22">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F22">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J22">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K22">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L22">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M22">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D23">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E23">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F23">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J23">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K23">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L23">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M23">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D24">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E24">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F24">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J24">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K24">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L24">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M24">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8869541765438395</v>
+        <v>0.8869541765438372</v>
       </c>
       <c r="D25">
-        <v>0.9005216568206917</v>
+        <v>0.9005216568206894</v>
       </c>
       <c r="E25">
-        <v>0.9088245054078585</v>
+        <v>0.9088245054078562</v>
       </c>
       <c r="F25">
-        <v>0.8557839358002199</v>
+        <v>0.8557839358002186</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J25">
-        <v>0.9124403703038316</v>
+        <v>0.9124403703038293</v>
       </c>
       <c r="K25">
-        <v>0.9132420386740748</v>
+        <v>0.9132420386740727</v>
       </c>
       <c r="L25">
-        <v>0.9213996383479327</v>
+        <v>0.9213996383479306</v>
       </c>
       <c r="M25">
-        <v>0.8693508626979044</v>
+        <v>0.8693508626979032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8775922294767631</v>
+        <v>0.877592229476762</v>
       </c>
       <c r="D2">
-        <v>0.8917270316462936</v>
+        <v>0.891727031646293</v>
       </c>
       <c r="E2">
-        <v>0.9009326028463062</v>
+        <v>0.9009326028463051</v>
       </c>
       <c r="F2">
-        <v>0.8420142172747829</v>
+        <v>0.8420142172747814</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.018246941345383</v>
       </c>
       <c r="J2">
-        <v>0.9041714495164606</v>
+        <v>0.9041714495164596</v>
       </c>
       <c r="K2">
-        <v>0.9049337067879258</v>
+        <v>0.904933706787925</v>
       </c>
       <c r="L2">
-        <v>0.9139694615498606</v>
+        <v>0.9139694615498595</v>
       </c>
       <c r="M2">
-        <v>0.8562232308068246</v>
+        <v>0.8562232308068234</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9032102141610415</v>
+        <v>0.90321021416104</v>
       </c>
       <c r="D3">
-        <v>0.9157581654715335</v>
+        <v>0.915758165471532</v>
       </c>
       <c r="E3">
-        <v>0.9225370124866352</v>
+        <v>0.9225370124866339</v>
       </c>
       <c r="F3">
-        <v>0.8792564542917539</v>
+        <v>0.8792564542917521</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.025544366727257</v>
       </c>
       <c r="J3">
-        <v>0.9267388083073982</v>
+        <v>0.9267388083073965</v>
       </c>
       <c r="K3">
-        <v>0.9275958951655878</v>
+        <v>0.9275958951655864</v>
       </c>
       <c r="L3">
-        <v>0.9342673800573528</v>
+        <v>0.9342673800573513</v>
       </c>
       <c r="M3">
-        <v>0.8917092105802334</v>
+        <v>0.891709210580232</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9171608725854071</v>
+        <v>0.9171608725854052</v>
       </c>
       <c r="D4">
-        <v>0.9288012257899984</v>
+        <v>0.9288012257899964</v>
       </c>
       <c r="E4">
-        <v>0.9343150982072979</v>
+        <v>0.9343150982072962</v>
       </c>
       <c r="F4">
-        <v>0.8989782950669317</v>
+        <v>0.8989782950669295</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.029376171255382</v>
       </c>
       <c r="J4">
-        <v>0.9389503708079668</v>
+        <v>0.9389503708079651</v>
       </c>
       <c r="K4">
-        <v>0.9398423595964331</v>
+        <v>0.9398423595964313</v>
       </c>
       <c r="L4">
-        <v>0.9452767322958402</v>
+        <v>0.9452767322958385</v>
       </c>
       <c r="M4">
-        <v>0.9104710479747417</v>
+        <v>0.9104710479747398</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9225850076649749</v>
+        <v>0.9225850076649754</v>
       </c>
       <c r="D5">
-        <v>0.9338646588584681</v>
+        <v>0.9338646588584689</v>
       </c>
       <c r="E5">
-        <v>0.9388972785998629</v>
+        <v>0.9388972785998637</v>
       </c>
       <c r="F5">
-        <v>0.9065441400945413</v>
+        <v>0.9065441400945417</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.030835973135372</v>
       </c>
       <c r="J5">
-        <v>0.9436836274983875</v>
+        <v>0.9436836274983881</v>
       </c>
       <c r="K5">
-        <v>0.9445860959948998</v>
+        <v>0.9445860959949004</v>
       </c>
       <c r="L5">
-        <v>0.9495489289853238</v>
+        <v>0.9495489289853246</v>
       </c>
       <c r="M5">
-        <v>0.9176616336555919</v>
+        <v>0.9176616336555925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9234734551511908</v>
+        <v>0.9234734551511905</v>
       </c>
       <c r="D6">
-        <v>0.9346936135389712</v>
+        <v>0.934693613538971</v>
       </c>
       <c r="E6">
-        <v>0.9396479706975666</v>
+        <v>0.939647970697566</v>
       </c>
       <c r="F6">
-        <v>0.9077779910073881</v>
+        <v>0.9077779910073875</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.031073386964647</v>
       </c>
       <c r="J6">
-        <v>0.9444581228198039</v>
+        <v>0.9444581228198037</v>
       </c>
       <c r="K6">
-        <v>0.9453621437159564</v>
+        <v>0.9453621437159562</v>
       </c>
       <c r="L6">
-        <v>0.9502482464832038</v>
+        <v>0.9502482464832035</v>
       </c>
       <c r="M6">
-        <v>0.9188338794652305</v>
+        <v>0.9188338794652299</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,13 +614,13 @@
         <v>0.9172349120332419</v>
       </c>
       <c r="D7">
-        <v>0.9288703708142018</v>
+        <v>0.9288703708142019</v>
       </c>
       <c r="E7">
-        <v>0.9343776342960223</v>
+        <v>0.9343776342960225</v>
       </c>
       <c r="F7">
-        <v>0.899081951010789</v>
+        <v>0.8990819510107896</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.02939621510731</v>
       </c>
       <c r="J7">
-        <v>0.9390150353730568</v>
+        <v>0.939015035373057</v>
       </c>
       <c r="K7">
-        <v>0.9399071788089475</v>
+        <v>0.9399071788089476</v>
       </c>
       <c r="L7">
-        <v>0.9453350793182836</v>
+        <v>0.9453350793182838</v>
       </c>
       <c r="M7">
-        <v>0.9105695907553045</v>
+        <v>0.910569590755305</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D8">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E8">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F8">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J8">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K8">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L8">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M8">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D9">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E9">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F9">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J9">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K9">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L9">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M9">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D10">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E10">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F10">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J10">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K10">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L10">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M10">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D11">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E11">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F11">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J11">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K11">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L11">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M11">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D12">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E12">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F12">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J12">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K12">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L12">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M12">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D13">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E13">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F13">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J13">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K13">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L13">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M13">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D14">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E14">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F14">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J14">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K14">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L14">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M14">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D15">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E15">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F15">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J15">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K15">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L15">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M15">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D16">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E16">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F16">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J16">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K16">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L16">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M16">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D17">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E17">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F17">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J17">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K17">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L17">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M17">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D18">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E18">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F18">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J18">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K18">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L18">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M18">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D19">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E19">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F19">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J19">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K19">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L19">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M19">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D20">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E20">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F20">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J20">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K20">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L20">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M20">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D21">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E21">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F21">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J21">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K21">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L21">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M21">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D22">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E22">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F22">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J22">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K22">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L22">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M22">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D23">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E23">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F23">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J23">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K23">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L23">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M23">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D24">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E24">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F24">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J24">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K24">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L24">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M24">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8869541765438372</v>
+        <v>0.8869541765438395</v>
       </c>
       <c r="D25">
-        <v>0.9005216568206894</v>
+        <v>0.9005216568206917</v>
       </c>
       <c r="E25">
-        <v>0.9088245054078562</v>
+        <v>0.9088245054078585</v>
       </c>
       <c r="F25">
-        <v>0.8557839358002186</v>
+        <v>0.8557839358002199</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.020950610942207</v>
       </c>
       <c r="J25">
-        <v>0.9124403703038293</v>
+        <v>0.9124403703038316</v>
       </c>
       <c r="K25">
-        <v>0.9132420386740727</v>
+        <v>0.9132420386740748</v>
       </c>
       <c r="L25">
-        <v>0.9213996383479306</v>
+        <v>0.9213996383479327</v>
       </c>
       <c r="M25">
-        <v>0.8693508626979032</v>
+        <v>0.8693508626979044</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.877592229476762</v>
+        <v>0.877720794524707</v>
       </c>
       <c r="D2">
-        <v>0.891727031646293</v>
+        <v>0.8918455742957154</v>
       </c>
       <c r="E2">
-        <v>0.9009326028463051</v>
+        <v>0.9010433389033048</v>
       </c>
       <c r="F2">
-        <v>0.8420142172747814</v>
+        <v>0.8421372676054798</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.018246941345383</v>
+        <v>1.01826243761308</v>
       </c>
       <c r="J2">
-        <v>0.9041714495164596</v>
+        <v>0.9042944708185914</v>
       </c>
       <c r="K2">
-        <v>0.904933706787925</v>
+        <v>0.9050500335824353</v>
       </c>
       <c r="L2">
-        <v>0.9139694615498595</v>
+        <v>0.914078182326676</v>
       </c>
       <c r="M2">
-        <v>0.8562232308068234</v>
+        <v>0.8563436060500743</v>
+      </c>
+      <c r="N2">
+        <v>0.9379564361570608</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.90321021416104</v>
+        <v>0.9033037401952042</v>
       </c>
       <c r="D3">
-        <v>0.915758165471532</v>
+        <v>0.9158443125266587</v>
       </c>
       <c r="E3">
-        <v>0.9225370124866339</v>
+        <v>0.9226179092726551</v>
       </c>
       <c r="F3">
-        <v>0.8792564542917521</v>
+        <v>0.8793408612287291</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025544366727257</v>
+        <v>1.025554377306128</v>
       </c>
       <c r="J3">
-        <v>0.9267388083073965</v>
+        <v>0.9268289565317817</v>
       </c>
       <c r="K3">
-        <v>0.9275958951655864</v>
+        <v>0.9276806650577901</v>
       </c>
       <c r="L3">
-        <v>0.9342673800573513</v>
+        <v>0.9343470078015104</v>
       </c>
       <c r="M3">
-        <v>0.891709210580232</v>
+        <v>0.8917921189019213</v>
+      </c>
+      <c r="N3">
+        <v>0.953168360142738</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9171608725854052</v>
+        <v>0.9172382974454711</v>
       </c>
       <c r="D4">
-        <v>0.9288012257899964</v>
+        <v>0.9288725364441569</v>
       </c>
       <c r="E4">
-        <v>0.9343150982072962</v>
+        <v>0.9343822173293961</v>
       </c>
       <c r="F4">
-        <v>0.8989782950669295</v>
+        <v>0.8990463948134477</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029376171255382</v>
+        <v>1.029384022341793</v>
       </c>
       <c r="J4">
-        <v>0.9389503708079651</v>
+        <v>0.9390252860319606</v>
       </c>
       <c r="K4">
-        <v>0.9398423595964313</v>
+        <v>0.9399126344460343</v>
       </c>
       <c r="L4">
-        <v>0.9452767322958385</v>
+        <v>0.9453428910027886</v>
       </c>
       <c r="M4">
-        <v>0.9104710479747398</v>
+        <v>0.9105380727785668</v>
+      </c>
+      <c r="N4">
+        <v>0.9614025467685635</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9225850076649754</v>
+        <v>0.9226565842292416</v>
       </c>
       <c r="D5">
-        <v>0.9338646588584689</v>
+        <v>0.9339305858625824</v>
       </c>
       <c r="E5">
-        <v>0.9388972785998637</v>
+        <v>0.9389593814883441</v>
       </c>
       <c r="F5">
-        <v>0.9065441400945417</v>
+        <v>0.9066065291464886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030835973135372</v>
+        <v>1.030843092494361</v>
       </c>
       <c r="J5">
-        <v>0.9436836274983881</v>
+        <v>0.9437529854026246</v>
       </c>
       <c r="K5">
-        <v>0.9445860959949004</v>
+        <v>0.9446511026605566</v>
       </c>
       <c r="L5">
-        <v>0.9495489289853246</v>
+        <v>0.9496101765894256</v>
       </c>
       <c r="M5">
-        <v>0.9176616336555925</v>
+        <v>0.9177230836604509</v>
+      </c>
+      <c r="N5">
+        <v>0.9645944482643722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9234734551511905</v>
+        <v>0.9235440931589942</v>
       </c>
       <c r="D6">
-        <v>0.934693613538971</v>
+        <v>0.9347586767603341</v>
       </c>
       <c r="E6">
-        <v>0.939647970697566</v>
+        <v>0.9397092679450709</v>
       </c>
       <c r="F6">
-        <v>0.9077779910073875</v>
+        <v>0.9078394737567426</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031073386964647</v>
+        <v>1.031080391408083</v>
       </c>
       <c r="J6">
-        <v>0.9444581228198037</v>
+        <v>0.9445265875652984</v>
       </c>
       <c r="K6">
-        <v>0.9453621437159562</v>
+        <v>0.9454263046717241</v>
       </c>
       <c r="L6">
-        <v>0.9502482464832035</v>
+        <v>0.950308704937225</v>
       </c>
       <c r="M6">
-        <v>0.9188338794652299</v>
+        <v>0.9188944440945865</v>
+      </c>
+      <c r="N6">
+        <v>0.9651167446103416</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9172349120332419</v>
+        <v>0.9173122556445743</v>
       </c>
       <c r="D7">
-        <v>0.9288703708142019</v>
+        <v>0.928941606658499</v>
       </c>
       <c r="E7">
-        <v>0.9343776342960225</v>
+        <v>0.9344446837738378</v>
       </c>
       <c r="F7">
-        <v>0.8990819510107896</v>
+        <v>0.8991499706635434</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02939621510731</v>
+        <v>1.029404055840813</v>
       </c>
       <c r="J7">
-        <v>0.939015035373057</v>
+        <v>0.9390898734844102</v>
       </c>
       <c r="K7">
-        <v>0.9399071788089476</v>
+        <v>0.9399773804857307</v>
       </c>
       <c r="L7">
-        <v>0.9453350793182838</v>
+        <v>0.9454011698687504</v>
       </c>
       <c r="M7">
-        <v>0.910569590755305</v>
+        <v>0.9106365374184678</v>
+      </c>
+      <c r="N7">
+        <v>0.961446152870441</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D8">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E8">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F8">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J8">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K8">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L8">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M8">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N8">
+        <v>0.9435292289242522</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D9">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E9">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F9">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J9">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K9">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L9">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M9">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N9">
+        <v>0.9435292289242522</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D10">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E10">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F10">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J10">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K10">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L10">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M10">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N10">
+        <v>0.9435292289242522</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D11">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E11">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F11">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J11">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K11">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L11">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M11">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N11">
+        <v>0.9435292289242522</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D12">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E12">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F12">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J12">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K12">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L12">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M12">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N12">
+        <v>0.9435292289242522</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D13">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E13">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F13">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J13">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K13">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L13">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M13">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N13">
+        <v>0.9435292289242522</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D14">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E14">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F14">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J14">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K14">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L14">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M14">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N14">
+        <v>0.9435292289242522</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D15">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E15">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F15">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J15">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K15">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L15">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M15">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N15">
+        <v>0.9435292289242522</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D16">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E16">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F16">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J16">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K16">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L16">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M16">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N16">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D17">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E17">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F17">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J17">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K17">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L17">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M17">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N17">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D18">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E18">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F18">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J18">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K18">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L18">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M18">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N18">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D19">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E19">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F19">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J19">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K19">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L19">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M19">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N19">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D20">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E20">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F20">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J20">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K20">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L20">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M20">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N20">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D21">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E21">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F21">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J21">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K21">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L21">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M21">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N21">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D22">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E22">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F22">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J22">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K22">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L22">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M22">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N22">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D23">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E23">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F23">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J23">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K23">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L23">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M23">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N23">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D24">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E24">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F24">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J24">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K24">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L24">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M24">
-        <v>0.8693508626979044</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N24">
+        <v>0.9435292289242522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8869541765438395</v>
+        <v>0.88706891763994</v>
       </c>
       <c r="D25">
-        <v>0.9005216568206917</v>
+        <v>0.9006273971133786</v>
       </c>
       <c r="E25">
-        <v>0.9088245054078585</v>
+        <v>0.9089234898179664</v>
       </c>
       <c r="F25">
-        <v>0.8557839358002199</v>
+        <v>0.8558912091340902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020950610942207</v>
+        <v>1.020963810235656</v>
       </c>
       <c r="J25">
-        <v>0.9124403703038316</v>
+        <v>0.9125504607581979</v>
       </c>
       <c r="K25">
-        <v>0.9132420386740748</v>
+        <v>0.9133459073223943</v>
       </c>
       <c r="L25">
-        <v>0.9213996383479327</v>
+        <v>0.921496911843851</v>
       </c>
       <c r="M25">
-        <v>0.8693508626979044</v>
+        <v>0.8694559667318992</v>
+      </c>
+      <c r="N25">
+        <v>0.9435292289242522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.877720794524707</v>
+        <v>0.9451925418191482</v>
       </c>
       <c r="D2">
-        <v>0.8918455742957154</v>
+        <v>0.9541938335544741</v>
       </c>
       <c r="E2">
-        <v>0.9010433389033048</v>
+        <v>0.9623403817022858</v>
       </c>
       <c r="F2">
-        <v>0.8421372676054798</v>
+        <v>0.9626507176550355</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.01826243761308</v>
+        <v>1.037948934077706</v>
       </c>
       <c r="J2">
-        <v>0.9042944708185914</v>
+        <v>0.969145941818805</v>
       </c>
       <c r="K2">
-        <v>0.9050500335824353</v>
+        <v>0.9663304881864734</v>
       </c>
       <c r="L2">
-        <v>0.914078182326676</v>
+        <v>0.9743505616607954</v>
       </c>
       <c r="M2">
-        <v>0.8563436060500743</v>
+        <v>0.9746561336769477</v>
       </c>
       <c r="N2">
-        <v>0.9379564361570608</v>
+        <v>0.9705222402187811</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9033037401952042</v>
+        <v>0.9611009499503915</v>
       </c>
       <c r="D3">
-        <v>0.9158443125266587</v>
+        <v>0.9692565381558911</v>
       </c>
       <c r="E3">
-        <v>0.9226179092726551</v>
+        <v>0.9765581470432715</v>
       </c>
       <c r="F3">
-        <v>0.8793408612287291</v>
+        <v>0.9780285199422691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025554377306128</v>
+        <v>1.039527372890382</v>
       </c>
       <c r="J3">
-        <v>0.9268289565317817</v>
+        <v>0.9827112971383878</v>
       </c>
       <c r="K3">
-        <v>0.9276806650577901</v>
+        <v>0.9802985107163523</v>
       </c>
       <c r="L3">
-        <v>0.9343470078015104</v>
+        <v>0.9875000257030703</v>
       </c>
       <c r="M3">
-        <v>0.8917921189019213</v>
+        <v>0.9889504694356734</v>
       </c>
       <c r="N3">
-        <v>0.953168360142738</v>
+        <v>0.9841068598988855</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9172382974454711</v>
+        <v>0.9707617372497886</v>
       </c>
       <c r="D4">
-        <v>0.9288725364441569</v>
+        <v>0.9784131938235924</v>
       </c>
       <c r="E4">
-        <v>0.9343822173293961</v>
+        <v>0.9852026029129022</v>
       </c>
       <c r="F4">
-        <v>0.8990463948134477</v>
+        <v>0.9873820064303455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029384022341793</v>
+        <v>1.040466978086157</v>
       </c>
       <c r="J4">
-        <v>0.9390252860319606</v>
+        <v>0.990944130778613</v>
       </c>
       <c r="K4">
-        <v>0.9399126344460343</v>
+        <v>0.9887793292206578</v>
       </c>
       <c r="L4">
-        <v>0.9453428910027886</v>
+        <v>0.9954829624352619</v>
       </c>
       <c r="M4">
-        <v>0.9105380727785668</v>
+        <v>0.9976351435163312</v>
       </c>
       <c r="N4">
-        <v>0.9614025467685635</v>
+        <v>0.992351385107199</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9226565842292416</v>
+        <v>0.9746894749927489</v>
       </c>
       <c r="D5">
-        <v>0.9339305858625824</v>
+        <v>0.9821379328036497</v>
       </c>
       <c r="E5">
-        <v>0.9389593814883441</v>
+        <v>0.9887192514449156</v>
       </c>
       <c r="F5">
-        <v>0.9066065291464886</v>
+        <v>0.9911880651206207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030843092494361</v>
+        <v>1.040844158175297</v>
       </c>
       <c r="J5">
-        <v>0.9437529854026246</v>
+        <v>0.9942898398195971</v>
       </c>
       <c r="K5">
-        <v>0.9446511026605566</v>
+        <v>0.9922266784589929</v>
       </c>
       <c r="L5">
-        <v>0.9496101765894256</v>
+        <v>0.9987276870754476</v>
       </c>
       <c r="M5">
-        <v>0.9177230836604509</v>
+        <v>1.001166715913373</v>
       </c>
       <c r="N5">
-        <v>0.9645944482643722</v>
+        <v>0.9957018454387794</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9235440931589942</v>
+        <v>0.9753415761345123</v>
       </c>
       <c r="D6">
-        <v>0.9347586767603341</v>
+        <v>0.9827564390134582</v>
       </c>
       <c r="E6">
-        <v>0.9397092679450709</v>
+        <v>0.989303216797992</v>
       </c>
       <c r="F6">
-        <v>0.9078394737567426</v>
+        <v>0.9918201482117875</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031080391408083</v>
+        <v>1.040906487183175</v>
       </c>
       <c r="J6">
-        <v>0.9445265875652984</v>
+        <v>0.9948452165787448</v>
       </c>
       <c r="K6">
-        <v>0.9454263046717241</v>
+        <v>0.9927989779062681</v>
       </c>
       <c r="L6">
-        <v>0.950308704937225</v>
+        <v>0.9992663335688429</v>
       </c>
       <c r="M6">
-        <v>0.9188944440945865</v>
+        <v>1.00175307698031</v>
       </c>
       <c r="N6">
-        <v>0.9651167446103416</v>
+        <v>0.9962580108966281</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9173122556445743</v>
+        <v>0.9708147240581666</v>
       </c>
       <c r="D7">
-        <v>0.928941606658499</v>
+        <v>0.9784634346362244</v>
       </c>
       <c r="E7">
-        <v>0.9344446837738378</v>
+        <v>0.9852500359717812</v>
       </c>
       <c r="F7">
-        <v>0.8991499706635434</v>
+        <v>0.9874333391434301</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029404055840813</v>
+        <v>1.040472085994264</v>
       </c>
       <c r="J7">
-        <v>0.9390898734844102</v>
+        <v>0.9909892719488674</v>
       </c>
       <c r="K7">
-        <v>0.9399773804857307</v>
+        <v>0.9888258383133584</v>
       </c>
       <c r="L7">
-        <v>0.9454011698687504</v>
+        <v>0.995526738862575</v>
       </c>
       <c r="M7">
-        <v>0.9106365374184678</v>
+        <v>0.9976827834939176</v>
       </c>
       <c r="N7">
-        <v>0.961446152870441</v>
+        <v>0.9923965903830932</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.88706891763994</v>
+        <v>0.9507119483962642</v>
       </c>
       <c r="D8">
-        <v>0.9006273971133786</v>
+        <v>0.9594175743467869</v>
       </c>
       <c r="E8">
-        <v>0.9089234898179664</v>
+        <v>0.9672707276833312</v>
       </c>
       <c r="F8">
-        <v>0.8558912091340902</v>
+        <v>0.9679825839691785</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.020963810235656</v>
+        <v>1.038500468567809</v>
       </c>
       <c r="J8">
-        <v>0.9125504607581979</v>
+        <v>0.9738533457885958</v>
       </c>
       <c r="K8">
-        <v>0.9133459073223943</v>
+        <v>0.9711768438134134</v>
       </c>
       <c r="L8">
-        <v>0.921496911843851</v>
+        <v>0.9789130798658037</v>
       </c>
       <c r="M8">
-        <v>0.8694559667318992</v>
+        <v>0.9796144571611165</v>
       </c>
       <c r="N8">
-        <v>0.9435292289242522</v>
+        <v>0.9752363292421552</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.88706891763994</v>
+        <v>0.9093653352709498</v>
       </c>
       <c r="D9">
-        <v>0.9006273971133786</v>
+        <v>0.9203480774401259</v>
       </c>
       <c r="E9">
-        <v>0.9089234898179664</v>
+        <v>0.9304075498863601</v>
       </c>
       <c r="F9">
-        <v>0.8558912091340902</v>
+        <v>0.9281299688620323</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.020963810235656</v>
+        <v>1.034296226622993</v>
       </c>
       <c r="J9">
-        <v>0.9125504607581979</v>
+        <v>0.9385813974868207</v>
       </c>
       <c r="K9">
-        <v>0.9133459073223943</v>
+        <v>0.9348807231556973</v>
       </c>
       <c r="L9">
-        <v>0.921496911843851</v>
+        <v>0.944740543392069</v>
       </c>
       <c r="M9">
-        <v>0.8694559667318992</v>
+        <v>0.9425076682978079</v>
       </c>
       <c r="N9">
-        <v>0.9435292289242522</v>
+        <v>0.9399142907280427</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.88706891763994</v>
+        <v>0.8755924781981645</v>
       </c>
       <c r="D10">
-        <v>0.9006273971133786</v>
+        <v>0.8885523737893297</v>
       </c>
       <c r="E10">
-        <v>0.9089234898179664</v>
+        <v>0.9004335997390307</v>
       </c>
       <c r="F10">
-        <v>0.8558912091340902</v>
+        <v>0.895733515666771</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020963810235656</v>
+        <v>1.030789450579719</v>
       </c>
       <c r="J10">
-        <v>0.9125504607581979</v>
+        <v>0.9097882276352763</v>
       </c>
       <c r="K10">
-        <v>0.9133459073223943</v>
+        <v>0.9052746051115457</v>
       </c>
       <c r="L10">
-        <v>0.921496911843851</v>
+        <v>0.9168677377235777</v>
       </c>
       <c r="M10">
-        <v>0.8694559667318992</v>
+        <v>0.9122803926059482</v>
       </c>
       <c r="N10">
-        <v>0.9435292289242522</v>
+        <v>0.9110802312726867</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.88706891763994</v>
+        <v>0.858608376830667</v>
       </c>
       <c r="D11">
-        <v>0.9006273971133786</v>
+        <v>0.8726076756675386</v>
       </c>
       <c r="E11">
-        <v>0.9089234898179664</v>
+        <v>0.8854141045537743</v>
       </c>
       <c r="F11">
-        <v>0.8558912091340902</v>
+        <v>0.879497563442609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020963810235656</v>
+        <v>1.029020057549318</v>
       </c>
       <c r="J11">
-        <v>0.9125504607581979</v>
+        <v>0.8953274733487365</v>
       </c>
       <c r="K11">
-        <v>0.9133459073223943</v>
+        <v>0.8904112158555919</v>
       </c>
       <c r="L11">
-        <v>0.921496911843851</v>
+        <v>0.9028770839874994</v>
       </c>
       <c r="M11">
-        <v>0.8694559667318992</v>
+        <v>0.8971162076249596</v>
       </c>
       <c r="N11">
-        <v>0.9435292289242522</v>
+        <v>0.8965989410563882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.88706891763994</v>
+        <v>0.8518117681756897</v>
       </c>
       <c r="D12">
-        <v>0.9006273971133786</v>
+        <v>0.8662361737040338</v>
       </c>
       <c r="E12">
-        <v>0.9089234898179664</v>
+        <v>0.8794148462346347</v>
       </c>
       <c r="F12">
-        <v>0.8558912091340902</v>
+        <v>0.8730113596695979</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020963810235656</v>
+        <v>1.028312630300585</v>
       </c>
       <c r="J12">
-        <v>0.9125504607581979</v>
+        <v>0.8895456564410302</v>
       </c>
       <c r="K12">
-        <v>0.9133459073223943</v>
+        <v>0.8844692659485219</v>
       </c>
       <c r="L12">
-        <v>0.921496911843851</v>
+        <v>0.8972847629596269</v>
       </c>
       <c r="M12">
-        <v>0.8694559667318992</v>
+        <v>0.8910558756117281</v>
       </c>
       <c r="N12">
-        <v>0.9435292289242522</v>
+        <v>0.8908089133054893</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.88706891763994</v>
+        <v>0.8532948055232203</v>
       </c>
       <c r="D13">
-        <v>0.9006273971133786</v>
+        <v>0.8676259905136429</v>
       </c>
       <c r="E13">
-        <v>0.9089234898179664</v>
+        <v>0.8807233349849539</v>
       </c>
       <c r="F13">
-        <v>0.8558912091340902</v>
+        <v>0.8744261171206256</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020963810235656</v>
+        <v>1.028466932646287</v>
       </c>
       <c r="J13">
-        <v>0.9125504607581979</v>
+        <v>0.8908069927865604</v>
       </c>
       <c r="K13">
-        <v>0.9133459073223943</v>
+        <v>0.8857654981938347</v>
       </c>
       <c r="L13">
-        <v>0.921496911843851</v>
+        <v>0.898504683107429</v>
       </c>
       <c r="M13">
-        <v>0.8694559667318992</v>
+        <v>0.8923778447566875</v>
       </c>
       <c r="N13">
-        <v>0.9435292289242522</v>
+        <v>0.8920720408933075</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.88706891763994</v>
+        <v>0.8580575872956827</v>
       </c>
       <c r="D14">
-        <v>0.9006273971133786</v>
+        <v>0.8720911363502253</v>
       </c>
       <c r="E14">
-        <v>0.9089234898179664</v>
+        <v>0.8849276868083633</v>
       </c>
       <c r="F14">
-        <v>0.8558912091340902</v>
+        <v>0.8789716903600664</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020963810235656</v>
+        <v>1.028962704804588</v>
       </c>
       <c r="J14">
-        <v>0.9125504607581979</v>
+        <v>0.8948588056180401</v>
       </c>
       <c r="K14">
-        <v>0.9133459073223943</v>
+        <v>0.8899295509993693</v>
       </c>
       <c r="L14">
-        <v>0.921496911843851</v>
+        <v>0.9024237433136196</v>
       </c>
       <c r="M14">
-        <v>0.8694559667318992</v>
+        <v>0.8966249077974288</v>
       </c>
       <c r="N14">
-        <v>0.9435292289242522</v>
+        <v>0.8961296077637574</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.88706891763994</v>
+        <v>0.8609220848630211</v>
       </c>
       <c r="D15">
-        <v>0.9006273971133786</v>
+        <v>0.874777888615064</v>
       </c>
       <c r="E15">
-        <v>0.9089234898179664</v>
+        <v>0.8874578693750382</v>
       </c>
       <c r="F15">
-        <v>0.8558912091340902</v>
+        <v>0.8817070598013116</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020963810235656</v>
+        <v>1.029261015705621</v>
       </c>
       <c r="J15">
-        <v>0.9125504607581979</v>
+        <v>0.8972964253304202</v>
       </c>
       <c r="K15">
-        <v>0.9133459073223943</v>
+        <v>0.8924348047318589</v>
       </c>
       <c r="L15">
-        <v>0.921496911843851</v>
+        <v>0.9047817079242721</v>
       </c>
       <c r="M15">
-        <v>0.8694559667318992</v>
+        <v>0.8991803508709103</v>
       </c>
       <c r="N15">
-        <v>0.9435292289242522</v>
+        <v>0.8985706891757278</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.88706891763994</v>
+        <v>0.8766601928362701</v>
       </c>
       <c r="D16">
-        <v>0.9006273971133786</v>
+        <v>0.8895558005846494</v>
       </c>
       <c r="E16">
-        <v>0.9089234898179664</v>
+        <v>0.9013790857429312</v>
       </c>
       <c r="F16">
-        <v>0.8558912091340902</v>
+        <v>0.8967554811479249</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020963810235656</v>
+        <v>1.030900677696738</v>
       </c>
       <c r="J16">
-        <v>0.9125504607581979</v>
+        <v>0.9106978357450188</v>
       </c>
       <c r="K16">
-        <v>0.9133459073223943</v>
+        <v>0.9062096513645955</v>
       </c>
       <c r="L16">
-        <v>0.921496911843851</v>
+        <v>0.9177479550204621</v>
       </c>
       <c r="M16">
-        <v>0.8694559667318992</v>
+        <v>0.9132345936814744</v>
       </c>
       <c r="N16">
-        <v>0.9435292289242522</v>
+        <v>0.9119911311302784</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.88706891763994</v>
+        <v>0.885827252691503</v>
       </c>
       <c r="D17">
-        <v>0.9006273971133786</v>
+        <v>0.8981758466601414</v>
       </c>
       <c r="E17">
-        <v>0.9089234898179664</v>
+        <v>0.9095026711796242</v>
       </c>
       <c r="F17">
-        <v>0.8558912091340902</v>
+        <v>0.9055358593159779</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020963810235656</v>
+        <v>1.031855129131757</v>
       </c>
       <c r="J17">
-        <v>0.9125504607581979</v>
+        <v>0.9185096069090097</v>
       </c>
       <c r="K17">
-        <v>0.9133459073223943</v>
+        <v>0.9142404875057258</v>
       </c>
       <c r="L17">
-        <v>0.921496911843851</v>
+        <v>0.9253081725914651</v>
       </c>
       <c r="M17">
-        <v>0.8694559667318992</v>
+        <v>0.9214311304349196</v>
       </c>
       <c r="N17">
-        <v>0.9435292289242522</v>
+        <v>0.919813995905345</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.88706891763994</v>
+        <v>0.890958081244354</v>
       </c>
       <c r="D18">
-        <v>0.9006273971133786</v>
+        <v>0.9030042920489318</v>
       </c>
       <c r="E18">
-        <v>0.9089234898179664</v>
+        <v>0.9140539929898964</v>
       </c>
       <c r="F18">
-        <v>0.8558912091340902</v>
+        <v>0.9104549795083351</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020963810235656</v>
+        <v>1.032388713782117</v>
       </c>
       <c r="J18">
-        <v>0.9125504607581979</v>
+        <v>0.9228833930174308</v>
       </c>
       <c r="K18">
-        <v>0.9133459073223943</v>
+        <v>0.9187374238766489</v>
       </c>
       <c r="L18">
-        <v>0.921496911843851</v>
+        <v>0.9295417789058746</v>
       </c>
       <c r="M18">
-        <v>0.8694559667318992</v>
+        <v>0.926021807526471</v>
       </c>
       <c r="N18">
-        <v>0.9435292289242522</v>
+        <v>0.9241939932917207</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.88706891763994</v>
+        <v>0.8926738484323432</v>
       </c>
       <c r="D19">
-        <v>0.9006273971133786</v>
+        <v>0.9046195335264482</v>
       </c>
       <c r="E19">
-        <v>0.9089234898179664</v>
+        <v>0.9155766770863328</v>
       </c>
       <c r="F19">
-        <v>0.8558912091340902</v>
+        <v>0.9121006975185304</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020963810235656</v>
+        <v>1.032567007137699</v>
       </c>
       <c r="J19">
-        <v>0.9125504607581979</v>
+        <v>0.9243462157568182</v>
       </c>
       <c r="K19">
-        <v>0.9133459073223943</v>
+        <v>0.9202415186363769</v>
       </c>
       <c r="L19">
-        <v>0.921496911843851</v>
+        <v>0.9309578238162795</v>
       </c>
       <c r="M19">
-        <v>0.8694559667318992</v>
+        <v>0.9275574138200464</v>
       </c>
       <c r="N19">
-        <v>0.9435292289242522</v>
+        <v>0.9256588934071859</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.88706891763994</v>
+        <v>0.8848668081668911</v>
       </c>
       <c r="D20">
-        <v>0.9006273971133786</v>
+        <v>0.8972723036880915</v>
       </c>
       <c r="E20">
-        <v>0.9089234898179664</v>
+        <v>0.9086510612763185</v>
       </c>
       <c r="F20">
-        <v>0.8558912091340902</v>
+        <v>0.9046154186649001</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020963810235656</v>
+        <v>1.031755187294756</v>
       </c>
       <c r="J20">
-        <v>0.9125504607581979</v>
+        <v>0.9176909872659854</v>
       </c>
       <c r="K20">
-        <v>0.9133459073223943</v>
+        <v>0.9133988591948768</v>
       </c>
       <c r="L20">
-        <v>0.921496911843851</v>
+        <v>0.9245158424539389</v>
       </c>
       <c r="M20">
-        <v>0.8694559667318992</v>
+        <v>0.9205720353975547</v>
       </c>
       <c r="N20">
-        <v>0.9435292289242522</v>
+        <v>0.9189942137285307</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.88706891763994</v>
+        <v>0.8566700192869534</v>
       </c>
       <c r="D21">
-        <v>0.9006273971133786</v>
+        <v>0.8707900079089533</v>
       </c>
       <c r="E21">
-        <v>0.9089234898179664</v>
+        <v>0.8837024761160963</v>
       </c>
       <c r="F21">
-        <v>0.8558912091340902</v>
+        <v>0.8776470782257123</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020963810235656</v>
+        <v>1.028818236183917</v>
       </c>
       <c r="J21">
-        <v>0.9125504607581979</v>
+        <v>0.8936782102488841</v>
       </c>
       <c r="K21">
-        <v>0.9133459073223943</v>
+        <v>0.8887162287607308</v>
       </c>
       <c r="L21">
-        <v>0.921496911843851</v>
+        <v>0.9012817833760014</v>
       </c>
       <c r="M21">
-        <v>0.8694559667318992</v>
+        <v>0.8953873453655734</v>
       </c>
       <c r="N21">
-        <v>0.9435292289242522</v>
+        <v>0.8949473358137611</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.88706891763994</v>
+        <v>0.8359757727390734</v>
       </c>
       <c r="D22">
-        <v>0.9006273971133786</v>
+        <v>0.8514121832236772</v>
       </c>
       <c r="E22">
-        <v>0.9089234898179664</v>
+        <v>0.8654631072674686</v>
       </c>
       <c r="F22">
-        <v>0.8558912091340902</v>
+        <v>0.8579240254470526</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020963810235656</v>
+        <v>1.026668007087983</v>
       </c>
       <c r="J22">
-        <v>0.9125504607581979</v>
+        <v>0.8760873606500814</v>
       </c>
       <c r="K22">
-        <v>0.9133459073223943</v>
+        <v>0.8706398429351109</v>
       </c>
       <c r="L22">
-        <v>0.921496911843851</v>
+        <v>0.8842711078674942</v>
       </c>
       <c r="M22">
-        <v>0.8694559667318992</v>
+        <v>0.8769548450734305</v>
       </c>
       <c r="N22">
-        <v>0.9435292289242522</v>
+        <v>0.8773315051908293</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.88706891763994</v>
+        <v>0.8472977155746327</v>
       </c>
       <c r="D23">
-        <v>0.9006273971133786</v>
+        <v>0.8620074751142037</v>
       </c>
       <c r="E23">
-        <v>0.9089234898179664</v>
+        <v>0.8754340595342676</v>
       </c>
       <c r="F23">
-        <v>0.8558912091340902</v>
+        <v>0.8687070440050065</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020963810235656</v>
+        <v>1.027843220354695</v>
       </c>
       <c r="J23">
-        <v>0.9125504607581979</v>
+        <v>0.8857073913194524</v>
       </c>
       <c r="K23">
-        <v>0.9133459073223943</v>
+        <v>0.8805249369024654</v>
       </c>
       <c r="L23">
-        <v>0.921496911843851</v>
+        <v>0.8935727943458279</v>
       </c>
       <c r="M23">
-        <v>0.8694559667318992</v>
+        <v>0.8870335292959156</v>
       </c>
       <c r="N23">
-        <v>0.9435292289242522</v>
+        <v>0.8869651974071838</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.88706891763994</v>
+        <v>0.8853014508149131</v>
       </c>
       <c r="D24">
-        <v>0.9006273971133786</v>
+        <v>0.8976811841858505</v>
       </c>
       <c r="E24">
-        <v>0.9089234898179664</v>
+        <v>0.9090364375085089</v>
       </c>
       <c r="F24">
-        <v>0.8558912091340902</v>
+        <v>0.9050319431623965</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020963810235656</v>
+        <v>1.031800417353908</v>
       </c>
       <c r="J24">
-        <v>0.9125504607581979</v>
+        <v>0.9180614433932462</v>
       </c>
       <c r="K24">
-        <v>0.9133459073223943</v>
+        <v>0.9137797260482895</v>
       </c>
       <c r="L24">
-        <v>0.921496911843851</v>
+        <v>0.9248743995268499</v>
       </c>
       <c r="M24">
-        <v>0.8694559667318992</v>
+        <v>0.9209608035789676</v>
       </c>
       <c r="N24">
-        <v>0.9435292289242522</v>
+        <v>0.919365195945984</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.88706891763994</v>
+        <v>0.9209378611253215</v>
       </c>
       <c r="D25">
-        <v>0.9006273971133786</v>
+        <v>0.9312683104071092</v>
       </c>
       <c r="E25">
-        <v>0.9089234898179664</v>
+        <v>0.9407080507516806</v>
       </c>
       <c r="F25">
-        <v>0.8558912091340902</v>
+        <v>0.9392635275108173</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020963810235656</v>
+        <v>1.035487112065309</v>
       </c>
       <c r="J25">
-        <v>0.9125504607581979</v>
+        <v>0.9484539916026435</v>
       </c>
       <c r="K25">
-        <v>0.9133459073223943</v>
+        <v>0.9450363474661697</v>
       </c>
       <c r="L25">
-        <v>0.921496911843851</v>
+        <v>0.9543022625346601</v>
       </c>
       <c r="M25">
-        <v>0.8694559667318992</v>
+        <v>0.9528840443151673</v>
       </c>
       <c r="N25">
-        <v>0.9435292289242522</v>
+        <v>0.9498009050599129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9451925418191482</v>
+        <v>0.9968156336328802</v>
       </c>
       <c r="D2">
-        <v>0.9541938335544741</v>
+        <v>1.005225141143769</v>
       </c>
       <c r="E2">
-        <v>0.9623403817022858</v>
+        <v>1.00993101699444</v>
       </c>
       <c r="F2">
-        <v>0.9626507176550355</v>
+        <v>1.012152241303903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037948934077706</v>
+        <v>1.046107102115163</v>
       </c>
       <c r="J2">
-        <v>0.969145941818805</v>
+        <v>1.019092007503852</v>
       </c>
       <c r="K2">
-        <v>0.9663304881864734</v>
+        <v>1.016612158281612</v>
       </c>
       <c r="L2">
-        <v>0.9743505616607954</v>
+        <v>1.021253709285519</v>
       </c>
       <c r="M2">
-        <v>0.9746561336769477</v>
+        <v>1.023444832910734</v>
       </c>
       <c r="N2">
-        <v>0.9705222402187811</v>
+        <v>1.010354866995297</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9611009499503915</v>
+        <v>1.001351085026503</v>
       </c>
       <c r="D3">
-        <v>0.9692565381558911</v>
+        <v>1.009114984603637</v>
       </c>
       <c r="E3">
-        <v>0.9765581470432715</v>
+        <v>1.013846874274836</v>
       </c>
       <c r="F3">
-        <v>0.9780285199422691</v>
+        <v>1.016737334618915</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039527372890382</v>
+        <v>1.047211738372239</v>
       </c>
       <c r="J3">
-        <v>0.9827112971383878</v>
+        <v>1.021804985743084</v>
       </c>
       <c r="K3">
-        <v>0.9802985107163523</v>
+        <v>1.019632550965139</v>
       </c>
       <c r="L3">
-        <v>0.9875000257030703</v>
+        <v>1.024305595144675</v>
       </c>
       <c r="M3">
-        <v>0.9889504694356734</v>
+        <v>1.027160445147943</v>
       </c>
       <c r="N3">
-        <v>0.9841068598988855</v>
+        <v>1.011254825325763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9707617372497886</v>
+        <v>1.004221642423849</v>
       </c>
       <c r="D4">
-        <v>0.9784131938235924</v>
+        <v>1.011581560082772</v>
       </c>
       <c r="E4">
-        <v>0.9852026029129022</v>
+        <v>1.01633155368937</v>
       </c>
       <c r="F4">
-        <v>0.9873820064303455</v>
+        <v>1.019647578084733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040466978086157</v>
+        <v>1.047893101394041</v>
       </c>
       <c r="J4">
-        <v>0.990944130778613</v>
+        <v>1.023517971191236</v>
       </c>
       <c r="K4">
-        <v>0.9887793292206578</v>
+        <v>1.021542186913473</v>
       </c>
       <c r="L4">
-        <v>0.9954829624352619</v>
+        <v>1.026236787483915</v>
       </c>
       <c r="M4">
-        <v>0.9976351435163312</v>
+        <v>1.029514519158853</v>
       </c>
       <c r="N4">
-        <v>0.992351385107199</v>
+        <v>1.011823031968252</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9746894749927489</v>
+        <v>1.005413597670711</v>
       </c>
       <c r="D5">
-        <v>0.9821379328036497</v>
+        <v>1.012606839854471</v>
       </c>
       <c r="E5">
-        <v>0.9887192514449156</v>
+        <v>1.017364748096542</v>
       </c>
       <c r="F5">
-        <v>0.9911880651206207</v>
+        <v>1.020857976229278</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040844158175297</v>
+        <v>1.048171695165932</v>
       </c>
       <c r="J5">
-        <v>0.9942898398195971</v>
+        <v>1.0242282394449</v>
       </c>
       <c r="K5">
-        <v>0.9922266784589929</v>
+        <v>1.022334610044068</v>
       </c>
       <c r="L5">
-        <v>0.9987276870754476</v>
+        <v>1.027038555784106</v>
       </c>
       <c r="M5">
-        <v>1.001166715913373</v>
+        <v>1.030492559187364</v>
       </c>
       <c r="N5">
-        <v>0.9957018454387794</v>
+        <v>1.012058622542017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9753415761345123</v>
+        <v>1.005612877864268</v>
       </c>
       <c r="D6">
-        <v>0.9827564390134582</v>
+        <v>1.012778315856061</v>
       </c>
       <c r="E6">
-        <v>0.989303216797992</v>
+        <v>1.017537570797528</v>
       </c>
       <c r="F6">
-        <v>0.9918201482117875</v>
+        <v>1.021060454761314</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040906487183175</v>
+        <v>1.04821801600952</v>
       </c>
       <c r="J6">
-        <v>0.9948452165787448</v>
+        <v>1.024346926267896</v>
       </c>
       <c r="K6">
-        <v>0.9927989779062681</v>
+        <v>1.022467061443094</v>
       </c>
       <c r="L6">
-        <v>0.9992663335688429</v>
+        <v>1.027172592890365</v>
       </c>
       <c r="M6">
-        <v>1.00175307698031</v>
+        <v>1.030656106672582</v>
       </c>
       <c r="N6">
-        <v>0.9962580108966281</v>
+        <v>1.012097989455844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9708147240581666</v>
+        <v>1.00423762695583</v>
       </c>
       <c r="D7">
-        <v>0.9784634346362244</v>
+        <v>1.01159530525469</v>
       </c>
       <c r="E7">
-        <v>0.9852500359717812</v>
+        <v>1.016345403424257</v>
       </c>
       <c r="F7">
-        <v>0.9874333391434301</v>
+        <v>1.019663802206649</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040472085994264</v>
+        <v>1.047896854638053</v>
       </c>
       <c r="J7">
-        <v>0.9909892719488674</v>
+        <v>1.023527500227046</v>
       </c>
       <c r="K7">
-        <v>0.9888258383133584</v>
+        <v>1.021552815704923</v>
       </c>
       <c r="L7">
-        <v>0.995526738862575</v>
+        <v>1.026247540033449</v>
       </c>
       <c r="M7">
-        <v>0.9976827834939176</v>
+        <v>1.02952763289299</v>
       </c>
       <c r="N7">
-        <v>0.9923965903830932</v>
+        <v>1.01182619271617</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9507119483962642</v>
+        <v>0.9983620335131534</v>
       </c>
       <c r="D8">
-        <v>0.9594175743467869</v>
+        <v>1.006550418096873</v>
       </c>
       <c r="E8">
-        <v>0.9672707276833312</v>
+        <v>1.011264821803585</v>
       </c>
       <c r="F8">
-        <v>0.9679825839691785</v>
+        <v>1.013713819122284</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038500468567809</v>
+        <v>1.046487428416034</v>
       </c>
       <c r="J8">
-        <v>0.9738533457885958</v>
+        <v>1.020017856623124</v>
       </c>
       <c r="K8">
-        <v>0.9711768438134134</v>
+        <v>1.017642384898607</v>
       </c>
       <c r="L8">
-        <v>0.9789130798658037</v>
+        <v>1.022294335668085</v>
       </c>
       <c r="M8">
-        <v>0.9796144571611165</v>
+        <v>1.024711177765302</v>
       </c>
       <c r="N8">
-        <v>0.9752363292421552</v>
+        <v>1.010661998067162</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9093653352709498</v>
+        <v>0.9874912082901264</v>
       </c>
       <c r="D9">
-        <v>0.9203480774401259</v>
+        <v>0.9972554928904138</v>
       </c>
       <c r="E9">
-        <v>0.9304075498863601</v>
+        <v>1.001916771131538</v>
       </c>
       <c r="F9">
-        <v>0.9281299688620323</v>
+        <v>1.002772384835361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034296226622993</v>
+        <v>1.04374087763795</v>
       </c>
       <c r="J9">
-        <v>0.9385813974868207</v>
+        <v>1.01349355077348</v>
       </c>
       <c r="K9">
-        <v>0.9348807231556973</v>
+        <v>1.010393255303</v>
       </c>
       <c r="L9">
-        <v>0.944740543392069</v>
+        <v>1.014978826422134</v>
       </c>
       <c r="M9">
-        <v>0.9425076682978079</v>
+        <v>1.015820641602935</v>
       </c>
       <c r="N9">
-        <v>0.9399142907280427</v>
+        <v>1.00849764548321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8755924781981645</v>
+        <v>0.9798577489270758</v>
       </c>
       <c r="D10">
-        <v>0.8885523737893297</v>
+        <v>0.9907579887963532</v>
       </c>
       <c r="E10">
-        <v>0.9004335997390307</v>
+        <v>0.9953904864704969</v>
       </c>
       <c r="F10">
-        <v>0.895733515666771</v>
+        <v>0.9951364019837979</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030789450579719</v>
+        <v>1.041722405663721</v>
       </c>
       <c r="J10">
-        <v>0.9097882276352763</v>
+        <v>1.008893958046109</v>
       </c>
       <c r="K10">
-        <v>0.9052746051115457</v>
+        <v>1.005296139938973</v>
       </c>
       <c r="L10">
-        <v>0.9168677377235777</v>
+        <v>1.009843468863498</v>
       </c>
       <c r="M10">
-        <v>0.9122803926059482</v>
+        <v>1.009594028976112</v>
       </c>
       <c r="N10">
-        <v>0.9110802312726867</v>
+        <v>1.006971816128831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.858608376830667</v>
+        <v>0.9764513919203626</v>
       </c>
       <c r="D11">
-        <v>0.8726076756675386</v>
+        <v>0.9878662201642296</v>
       </c>
       <c r="E11">
-        <v>0.8854141045537743</v>
+        <v>0.9924878486882203</v>
       </c>
       <c r="F11">
-        <v>0.879497563442609</v>
+        <v>0.9917404956855042</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029020057549318</v>
+        <v>1.040801322477305</v>
       </c>
       <c r="J11">
-        <v>0.8953274733487365</v>
+        <v>1.006837728759248</v>
       </c>
       <c r="K11">
-        <v>0.8904112158555919</v>
+        <v>1.003020647829134</v>
       </c>
       <c r="L11">
-        <v>0.9028770839874994</v>
+        <v>1.007552837431026</v>
       </c>
       <c r="M11">
-        <v>0.8971162076249596</v>
+        <v>1.006819873388098</v>
       </c>
       <c r="N11">
-        <v>0.8965989410563882</v>
+        <v>1.006289735675486</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8518117681756897</v>
+        <v>0.9751700748270321</v>
       </c>
       <c r="D12">
-        <v>0.8662361737040338</v>
+        <v>0.9867796862611794</v>
       </c>
       <c r="E12">
-        <v>0.8794148462346347</v>
+        <v>0.9913975187994938</v>
       </c>
       <c r="F12">
-        <v>0.8730113596695979</v>
+        <v>0.9904648872865136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028312630300585</v>
+        <v>1.040451877472713</v>
       </c>
       <c r="J12">
-        <v>0.8895456564410302</v>
+        <v>1.006063767186598</v>
       </c>
       <c r="K12">
-        <v>0.8844692659485219</v>
+        <v>1.002164626467857</v>
       </c>
       <c r="L12">
-        <v>0.8972847629596269</v>
+        <v>1.00669140562</v>
       </c>
       <c r="M12">
-        <v>0.8910558756117281</v>
+        <v>1.005777073711122</v>
       </c>
       <c r="N12">
-        <v>0.8908089133054893</v>
+        <v>1.006033009497588</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8532948055232203</v>
+        <v>0.9754456623827847</v>
       </c>
       <c r="D13">
-        <v>0.8676259905136429</v>
+        <v>0.9870133234453449</v>
       </c>
       <c r="E13">
-        <v>0.8807233349849539</v>
+        <v>0.9916319592816747</v>
       </c>
       <c r="F13">
-        <v>0.8744261171206256</v>
+        <v>0.9907391660579311</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028466932646287</v>
+        <v>1.040527169653094</v>
       </c>
       <c r="J13">
-        <v>0.8908069927865604</v>
+        <v>1.006230253704723</v>
       </c>
       <c r="K13">
-        <v>0.8857654981938347</v>
+        <v>1.002348743629547</v>
       </c>
       <c r="L13">
-        <v>0.898504683107429</v>
+        <v>1.006876673708846</v>
       </c>
       <c r="M13">
-        <v>0.8923778447566875</v>
+        <v>1.006001327607197</v>
       </c>
       <c r="N13">
-        <v>0.8920720408933075</v>
+        <v>1.006088233350775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8580575872956827</v>
+        <v>0.9763458103977168</v>
       </c>
       <c r="D14">
-        <v>0.8720911363502253</v>
+        <v>0.9877766637850526</v>
       </c>
       <c r="E14">
-        <v>0.8849276868083633</v>
+        <v>0.9923979735969233</v>
       </c>
       <c r="F14">
-        <v>0.8789716903600664</v>
+        <v>0.9916353482122297</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028962704804588</v>
+        <v>1.040772587903128</v>
       </c>
       <c r="J14">
-        <v>0.8948588056180401</v>
+        <v>1.006773963583576</v>
       </c>
       <c r="K14">
-        <v>0.8899295509993693</v>
+        <v>1.002950112369485</v>
       </c>
       <c r="L14">
-        <v>0.9024237433136196</v>
+        <v>1.007481850399098</v>
       </c>
       <c r="M14">
-        <v>0.8966249077974288</v>
+        <v>1.00673393112507</v>
       </c>
       <c r="N14">
-        <v>0.8961296077637574</v>
+        <v>1.006268584334598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8609220848630211</v>
+        <v>0.976898268208772</v>
       </c>
       <c r="D15">
-        <v>0.874777888615064</v>
+        <v>0.9882453196918555</v>
       </c>
       <c r="E15">
-        <v>0.8874578693750382</v>
+        <v>0.9928683090662467</v>
       </c>
       <c r="F15">
-        <v>0.8817070598013116</v>
+        <v>0.992185607515336</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029261015705621</v>
+        <v>1.040922821515167</v>
       </c>
       <c r="J15">
-        <v>0.8972964253304202</v>
+        <v>1.007107596280498</v>
       </c>
       <c r="K15">
-        <v>0.8924348047318589</v>
+        <v>1.003319187747893</v>
       </c>
       <c r="L15">
-        <v>0.9047817079242721</v>
+        <v>1.007853300192987</v>
       </c>
       <c r="M15">
-        <v>0.8991803508709103</v>
+        <v>1.007183655354538</v>
       </c>
       <c r="N15">
-        <v>0.8985706891757278</v>
+        <v>1.006379252896844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8766601928362701</v>
+        <v>0.9800816166878704</v>
       </c>
       <c r="D16">
-        <v>0.8895558005846494</v>
+        <v>0.9909482027380633</v>
       </c>
       <c r="E16">
-        <v>0.9013790857429312</v>
+        <v>0.9955814554870533</v>
       </c>
       <c r="F16">
-        <v>0.8967554811479249</v>
+        <v>0.9953598270779608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030900677696738</v>
+        <v>1.041782522951649</v>
       </c>
       <c r="J16">
-        <v>0.9106978357450188</v>
+        <v>1.009029022106034</v>
       </c>
       <c r="K16">
-        <v>0.9062096513645955</v>
+        <v>1.005445671651403</v>
       </c>
       <c r="L16">
-        <v>0.9177479550204621</v>
+        <v>1.009994035205596</v>
       </c>
       <c r="M16">
-        <v>0.9132345936814744</v>
+        <v>1.009776443989389</v>
       </c>
       <c r="N16">
-        <v>0.9119911311302784</v>
+        <v>1.007016619745121</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.885827252691503</v>
+        <v>0.982050809043445</v>
       </c>
       <c r="D17">
-        <v>0.8981758466601414</v>
+        <v>0.9926222489943226</v>
       </c>
       <c r="E17">
-        <v>0.9095026711796242</v>
+        <v>0.9972623674920984</v>
       </c>
       <c r="F17">
-        <v>0.9055358593159779</v>
+        <v>0.9973264462878922</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031855129131757</v>
+        <v>1.042309023478856</v>
       </c>
       <c r="J17">
-        <v>0.9185096069090097</v>
+        <v>1.010216661821661</v>
       </c>
       <c r="K17">
-        <v>0.9142404875057258</v>
+        <v>1.006760885441556</v>
       </c>
       <c r="L17">
-        <v>0.9253081725914651</v>
+        <v>1.01131856819517</v>
       </c>
       <c r="M17">
-        <v>0.9214311304349196</v>
+        <v>1.011381515538483</v>
       </c>
       <c r="N17">
-        <v>0.919813995905345</v>
+        <v>1.007410589379606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.890958081244354</v>
+        <v>0.9831897207031818</v>
       </c>
       <c r="D18">
-        <v>0.9030042920489318</v>
+        <v>0.9935911818303875</v>
       </c>
       <c r="E18">
-        <v>0.9140539929898964</v>
+        <v>0.9982354585597911</v>
       </c>
       <c r="F18">
-        <v>0.9104549795083351</v>
+        <v>0.9984649641472411</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032388713782117</v>
+        <v>1.042611597873147</v>
       </c>
       <c r="J18">
-        <v>0.9228833930174308</v>
+        <v>1.010903195956909</v>
       </c>
       <c r="K18">
-        <v>0.9187374238766489</v>
+        <v>1.007521464466046</v>
       </c>
       <c r="L18">
-        <v>0.9295417789058746</v>
+        <v>1.012084719958945</v>
       </c>
       <c r="M18">
-        <v>0.926021807526471</v>
+        <v>1.012310247020212</v>
       </c>
       <c r="N18">
-        <v>0.9241939932917207</v>
+        <v>1.007638333007798</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8926738484323432</v>
+        <v>0.9835764427137318</v>
       </c>
       <c r="D19">
-        <v>0.9046195335264482</v>
+        <v>0.9939203076799019</v>
       </c>
       <c r="E19">
-        <v>0.9155766770863328</v>
+        <v>0.9985660282492381</v>
       </c>
       <c r="F19">
-        <v>0.9121006975185304</v>
+        <v>0.9988517369887011</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032567007137699</v>
+        <v>1.042714007545199</v>
       </c>
       <c r="J19">
-        <v>0.9243462157568182</v>
+        <v>1.011136249551984</v>
       </c>
       <c r="K19">
-        <v>0.9202415186363769</v>
+        <v>1.007779704393036</v>
       </c>
       <c r="L19">
-        <v>0.9309578238162795</v>
+        <v>1.012344883296624</v>
       </c>
       <c r="M19">
-        <v>0.9275574138200464</v>
+        <v>1.012625670397691</v>
       </c>
       <c r="N19">
-        <v>0.9256588934071859</v>
+        <v>1.00771564422566</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8848668081668911</v>
+        <v>0.9818405411612561</v>
       </c>
       <c r="D20">
-        <v>0.8972723036880915</v>
+        <v>0.9924434209338372</v>
       </c>
       <c r="E20">
-        <v>0.9086510612763185</v>
+        <v>0.9970827869052736</v>
       </c>
       <c r="F20">
-        <v>0.9046154186649001</v>
+        <v>0.9971163393287634</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031755187294756</v>
+        <v>1.04225300463091</v>
       </c>
       <c r="J20">
-        <v>0.9176909872659854</v>
+        <v>1.010089883594349</v>
       </c>
       <c r="K20">
-        <v>0.9133988591948768</v>
+        <v>1.006620457955507</v>
       </c>
       <c r="L20">
-        <v>0.9245158424539389</v>
+        <v>1.011177126678539</v>
       </c>
       <c r="M20">
-        <v>0.9205720353975547</v>
+        <v>1.011210084662087</v>
       </c>
       <c r="N20">
-        <v>0.9189942137285307</v>
+        <v>1.007368533540292</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8566700192869534</v>
+        <v>0.9760811894420118</v>
       </c>
       <c r="D21">
-        <v>0.8707900079089533</v>
+        <v>0.9875522267963934</v>
       </c>
       <c r="E21">
-        <v>0.8837024761160963</v>
+        <v>0.9921727425109288</v>
       </c>
       <c r="F21">
-        <v>0.8776470782257123</v>
+        <v>0.9913718438868552</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028818236183917</v>
+        <v>1.040700522271556</v>
       </c>
       <c r="J21">
-        <v>0.8936782102488841</v>
+        <v>1.006614139843848</v>
       </c>
       <c r="K21">
-        <v>0.8887162287607308</v>
+        <v>1.002773326867282</v>
       </c>
       <c r="L21">
-        <v>0.9012817833760014</v>
+        <v>1.007303937673792</v>
       </c>
       <c r="M21">
-        <v>0.8953873453655734</v>
+        <v>1.006518544053614</v>
       </c>
       <c r="N21">
-        <v>0.8949473358137611</v>
+        <v>1.006215569852501</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8359757727390734</v>
+        <v>0.972366750088679</v>
       </c>
       <c r="D22">
-        <v>0.8514121832236772</v>
+        <v>0.9844048330987032</v>
       </c>
       <c r="E22">
-        <v>0.8654631072674686</v>
+        <v>0.989014894166491</v>
       </c>
       <c r="F22">
-        <v>0.8579240254470526</v>
+        <v>0.9876773671517901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026668007087983</v>
+        <v>1.039681967030318</v>
       </c>
       <c r="J22">
-        <v>0.8760873606500814</v>
+        <v>1.004369599516016</v>
       </c>
       <c r="K22">
-        <v>0.8706398429351109</v>
+        <v>1.000291695789358</v>
       </c>
       <c r="L22">
-        <v>0.8842711078674942</v>
+        <v>1.004807155009627</v>
       </c>
       <c r="M22">
-        <v>0.8769548450734305</v>
+        <v>1.003496955097867</v>
       </c>
       <c r="N22">
-        <v>0.8773315051908293</v>
+        <v>1.005471064583602</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8472977155746327</v>
+        <v>0.9743449960516612</v>
       </c>
       <c r="D23">
-        <v>0.8620074751142037</v>
+        <v>0.9860803860042161</v>
       </c>
       <c r="E23">
-        <v>0.8754340595342676</v>
+        <v>0.9906958561082815</v>
       </c>
       <c r="F23">
-        <v>0.8687070440050065</v>
+        <v>0.9896439904802427</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027843220354695</v>
+        <v>1.040226031537702</v>
       </c>
       <c r="J23">
-        <v>0.8857073913194524</v>
+        <v>1.005565255831468</v>
       </c>
       <c r="K23">
-        <v>0.8805249369024654</v>
+        <v>1.001613392301404</v>
       </c>
       <c r="L23">
-        <v>0.8935727943458279</v>
+        <v>1.00613676697209</v>
       </c>
       <c r="M23">
-        <v>0.8870335292959156</v>
+        <v>1.005105790545989</v>
       </c>
       <c r="N23">
-        <v>0.8869651974071838</v>
+        <v>1.005867653809407</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8853014508149131</v>
+        <v>0.9819355820321451</v>
       </c>
       <c r="D24">
-        <v>0.8976811841858505</v>
+        <v>0.9925242487986359</v>
       </c>
       <c r="E24">
-        <v>0.9090364375085089</v>
+        <v>0.9971639543299594</v>
       </c>
       <c r="F24">
-        <v>0.9050319431623965</v>
+        <v>0.997211304071321</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031800417353908</v>
+        <v>1.042278331101141</v>
       </c>
       <c r="J24">
-        <v>0.9180614433932462</v>
+        <v>1.010147188330321</v>
       </c>
       <c r="K24">
-        <v>0.9137797260482895</v>
+        <v>1.006683931334957</v>
       </c>
       <c r="L24">
-        <v>0.9248743995268499</v>
+        <v>1.011241057831354</v>
       </c>
       <c r="M24">
-        <v>0.9209608035789676</v>
+        <v>1.011287569963697</v>
       </c>
       <c r="N24">
-        <v>0.919365195945984</v>
+        <v>1.007387543094167</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9209378611253215</v>
+        <v>0.9903666738947393</v>
       </c>
       <c r="D25">
-        <v>0.9312683104071092</v>
+        <v>0.999709285008675</v>
       </c>
       <c r="E25">
-        <v>0.9407080507516806</v>
+        <v>1.004383133355408</v>
       </c>
       <c r="F25">
-        <v>0.9392635275108173</v>
+        <v>1.005658558642795</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035487112065309</v>
+        <v>1.044483137376863</v>
       </c>
       <c r="J25">
-        <v>0.9484539916026435</v>
+        <v>1.015222644737855</v>
       </c>
       <c r="K25">
-        <v>0.9450363474661697</v>
+        <v>1.012312115629872</v>
       </c>
       <c r="L25">
-        <v>0.9543022625346601</v>
+        <v>1.016913785756156</v>
       </c>
       <c r="M25">
-        <v>0.9528840443151673</v>
+        <v>1.018169663294515</v>
       </c>
       <c r="N25">
-        <v>0.9498009050599129</v>
+        <v>1.009071254783115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9968156336328802</v>
+        <v>1.028387484464507</v>
       </c>
       <c r="D2">
-        <v>1.005225141143769</v>
+        <v>1.031031937333478</v>
       </c>
       <c r="E2">
-        <v>1.00993101699444</v>
+        <v>1.037024270101197</v>
       </c>
       <c r="F2">
-        <v>1.012152241303903</v>
+        <v>1.044831663553818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046107102115163</v>
+        <v>1.031458094441068</v>
       </c>
       <c r="J2">
-        <v>1.019092007503852</v>
+        <v>1.033540083901993</v>
       </c>
       <c r="K2">
-        <v>1.016612158281612</v>
+        <v>1.033841229938427</v>
       </c>
       <c r="L2">
-        <v>1.021253709285519</v>
+        <v>1.039816336229628</v>
       </c>
       <c r="M2">
-        <v>1.023444832910734</v>
+        <v>1.047601607058841</v>
       </c>
       <c r="N2">
-        <v>1.010354866995297</v>
+        <v>1.015198144459557</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001351085026503</v>
+        <v>1.029329010817944</v>
       </c>
       <c r="D3">
-        <v>1.009114984603637</v>
+        <v>1.031886700390661</v>
       </c>
       <c r="E3">
-        <v>1.013846874274836</v>
+        <v>1.037895119148667</v>
       </c>
       <c r="F3">
-        <v>1.016737334618915</v>
+        <v>1.045867775930881</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047211738372239</v>
+        <v>1.031583434463904</v>
       </c>
       <c r="J3">
-        <v>1.021804985743084</v>
+        <v>1.034122238610532</v>
       </c>
       <c r="K3">
-        <v>1.019632550965139</v>
+        <v>1.034504347739644</v>
       </c>
       <c r="L3">
-        <v>1.024305595144675</v>
+        <v>1.040496745678366</v>
       </c>
       <c r="M3">
-        <v>1.027160445147943</v>
+        <v>1.04844845112498</v>
       </c>
       <c r="N3">
-        <v>1.011254825325763</v>
+        <v>1.015390744270464</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004221642423849</v>
+        <v>1.029938115781053</v>
       </c>
       <c r="D4">
-        <v>1.011581560082772</v>
+        <v>1.03243993731929</v>
       </c>
       <c r="E4">
-        <v>1.01633155368937</v>
+        <v>1.03845896593425</v>
       </c>
       <c r="F4">
-        <v>1.019647578084733</v>
+        <v>1.046538867688036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047893101394041</v>
+        <v>1.031662283087776</v>
       </c>
       <c r="J4">
-        <v>1.023517971191236</v>
+        <v>1.03449820466779</v>
       </c>
       <c r="K4">
-        <v>1.021542186913473</v>
+        <v>1.034932938515112</v>
       </c>
       <c r="L4">
-        <v>1.026236787483915</v>
+        <v>1.040936728023079</v>
       </c>
       <c r="M4">
-        <v>1.029514519158853</v>
+        <v>1.048996469606627</v>
       </c>
       <c r="N4">
-        <v>1.011823031968252</v>
+        <v>1.015515108448591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005413597670711</v>
+        <v>1.030194152657535</v>
       </c>
       <c r="D5">
-        <v>1.012606839854471</v>
+        <v>1.032672552384074</v>
       </c>
       <c r="E5">
-        <v>1.017364748096542</v>
+        <v>1.038696089599414</v>
       </c>
       <c r="F5">
-        <v>1.020857976229278</v>
+        <v>1.046821151123285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048171695165932</v>
+        <v>1.031694890465212</v>
       </c>
       <c r="J5">
-        <v>1.0242282394449</v>
+        <v>1.034656085857271</v>
       </c>
       <c r="K5">
-        <v>1.022334610044068</v>
+        <v>1.03511299958756</v>
       </c>
       <c r="L5">
-        <v>1.027038555784106</v>
+        <v>1.041121626709795</v>
       </c>
       <c r="M5">
-        <v>1.030492559187364</v>
+        <v>1.049226868476703</v>
       </c>
       <c r="N5">
-        <v>1.012058622542017</v>
+        <v>1.01556732839164</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005612877864268</v>
+        <v>1.030237140543461</v>
       </c>
       <c r="D6">
-        <v>1.012778315856061</v>
+        <v>1.032711611451293</v>
       </c>
       <c r="E6">
-        <v>1.017537570797528</v>
+        <v>1.038735908509744</v>
       </c>
       <c r="F6">
-        <v>1.021060454761314</v>
+        <v>1.046868556899635</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04821801600952</v>
+        <v>1.031700333664033</v>
       </c>
       <c r="J6">
-        <v>1.024346926267896</v>
+        <v>1.034682584518644</v>
       </c>
       <c r="K6">
-        <v>1.022467061443094</v>
+        <v>1.03514322565656</v>
       </c>
       <c r="L6">
-        <v>1.027172592890365</v>
+        <v>1.041152667887358</v>
       </c>
       <c r="M6">
-        <v>1.030656106672582</v>
+        <v>1.049265554130441</v>
       </c>
       <c r="N6">
-        <v>1.012097989455844</v>
+        <v>1.015576092660183</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00423762695583</v>
+        <v>1.029941537080554</v>
       </c>
       <c r="D7">
-        <v>1.01159530525469</v>
+        <v>1.032443045400062</v>
       </c>
       <c r="E7">
-        <v>1.016345403424257</v>
+        <v>1.038462134069623</v>
       </c>
       <c r="F7">
-        <v>1.019663802206649</v>
+        <v>1.046542638959609</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047896854638053</v>
+        <v>1.031662720914289</v>
       </c>
       <c r="J7">
-        <v>1.023527500227046</v>
+        <v>1.034500314972521</v>
       </c>
       <c r="K7">
-        <v>1.021552815704923</v>
+        <v>1.034935344966825</v>
       </c>
       <c r="L7">
-        <v>1.026247540033449</v>
+        <v>1.040939198924183</v>
       </c>
       <c r="M7">
-        <v>1.02952763289299</v>
+        <v>1.048999548162071</v>
       </c>
       <c r="N7">
-        <v>1.01182619271617</v>
+        <v>1.015515806461036</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9983620335131534</v>
+        <v>1.028705703223361</v>
       </c>
       <c r="D8">
-        <v>1.006550418096873</v>
+        <v>1.031320777138377</v>
       </c>
       <c r="E8">
-        <v>1.011264821803585</v>
+        <v>1.037318504629932</v>
       </c>
       <c r="F8">
-        <v>1.013713819122284</v>
+        <v>1.045181685781894</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046487428416034</v>
+        <v>1.031500920076984</v>
       </c>
       <c r="J8">
-        <v>1.020017856623124</v>
+        <v>1.033736975793726</v>
       </c>
       <c r="K8">
-        <v>1.017642384898607</v>
+        <v>1.034065434728197</v>
       </c>
       <c r="L8">
-        <v>1.022294335668085</v>
+        <v>1.040046342878873</v>
       </c>
       <c r="M8">
-        <v>1.024711177765302</v>
+        <v>1.047887790268563</v>
       </c>
       <c r="N8">
-        <v>1.010661998067162</v>
+        <v>1.015263288267741</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9874912082901264</v>
+        <v>1.026527078928655</v>
       </c>
       <c r="D9">
-        <v>0.9972554928904138</v>
+        <v>1.029344383040099</v>
       </c>
       <c r="E9">
-        <v>1.001916771131538</v>
+        <v>1.035306007274238</v>
       </c>
       <c r="F9">
-        <v>1.002772384835361</v>
+        <v>1.042788594123732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04374087763795</v>
+        <v>1.031198571993396</v>
       </c>
       <c r="J9">
-        <v>1.01349355077348</v>
+        <v>1.03238634624392</v>
       </c>
       <c r="K9">
-        <v>1.010393255303</v>
+        <v>1.032528826259711</v>
       </c>
       <c r="L9">
-        <v>1.014978826422134</v>
+        <v>1.038470850608647</v>
       </c>
       <c r="M9">
-        <v>1.015820641602935</v>
+        <v>1.04592918450924</v>
       </c>
       <c r="N9">
-        <v>1.00849764548321</v>
+        <v>1.014816335923118</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9798577489270758</v>
+        <v>1.025074083152964</v>
       </c>
       <c r="D10">
-        <v>0.9907579887963532</v>
+        <v>1.028027652403366</v>
       </c>
       <c r="E10">
-        <v>0.9953904864704969</v>
+        <v>1.033966238250516</v>
       </c>
       <c r="F10">
-        <v>0.9951364019837979</v>
+        <v>1.041196673446645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041722405663721</v>
+        <v>1.030985464365345</v>
       </c>
       <c r="J10">
-        <v>1.008893958046109</v>
+        <v>1.031482260848811</v>
       </c>
       <c r="K10">
-        <v>1.005296139938973</v>
+        <v>1.031501979170597</v>
       </c>
       <c r="L10">
-        <v>1.009843468863498</v>
+        <v>1.037419118987907</v>
       </c>
       <c r="M10">
-        <v>1.009594028976112</v>
+        <v>1.044623807092624</v>
       </c>
       <c r="N10">
-        <v>1.006971816128831</v>
+        <v>1.014517053048315</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9764513919203626</v>
+        <v>1.024444790880234</v>
       </c>
       <c r="D11">
-        <v>0.9878662201642296</v>
+        <v>1.027457712523307</v>
       </c>
       <c r="E11">
-        <v>0.9924878486882203</v>
+        <v>1.033386566181675</v>
       </c>
       <c r="F11">
-        <v>0.9917404956855042</v>
+        <v>1.040508189478023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040801322477305</v>
+        <v>1.030890457885435</v>
       </c>
       <c r="J11">
-        <v>1.006837728759248</v>
+        <v>1.031089922708757</v>
       </c>
       <c r="K11">
-        <v>1.003020647829134</v>
+        <v>1.031056775349211</v>
       </c>
       <c r="L11">
-        <v>1.007552837431026</v>
+        <v>1.036963385287218</v>
       </c>
       <c r="M11">
-        <v>1.006819873388098</v>
+        <v>1.044058660490133</v>
       </c>
       <c r="N11">
-        <v>1.006289735675486</v>
+        <v>1.014387152197579</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9751700748270321</v>
+        <v>1.024211023933834</v>
       </c>
       <c r="D12">
-        <v>0.9867796862611794</v>
+        <v>1.027246044547693</v>
       </c>
       <c r="E12">
-        <v>0.9913975187994938</v>
+        <v>1.033171319778631</v>
       </c>
       <c r="F12">
-        <v>0.9904648872865136</v>
+        <v>1.040252581141893</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040451877472713</v>
+        <v>1.030854758853289</v>
       </c>
       <c r="J12">
-        <v>1.006063767186598</v>
+        <v>1.030944061930984</v>
       </c>
       <c r="K12">
-        <v>1.002164626467857</v>
+        <v>1.030891321704181</v>
       </c>
       <c r="L12">
-        <v>1.00669140562</v>
+        <v>1.036794057165835</v>
       </c>
       <c r="M12">
-        <v>1.005777073711122</v>
+        <v>1.043848754272705</v>
       </c>
       <c r="N12">
-        <v>1.006033009497588</v>
+        <v>1.014338855036598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9754456623827847</v>
+        <v>1.024261168623042</v>
       </c>
       <c r="D13">
-        <v>0.9870133234453449</v>
+        <v>1.027291446533696</v>
       </c>
       <c r="E13">
-        <v>0.9916319592816747</v>
+        <v>1.033217487696786</v>
       </c>
       <c r="F13">
-        <v>0.9907391660579311</v>
+        <v>1.040307404315786</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040527169653094</v>
+        <v>1.030862434932104</v>
       </c>
       <c r="J13">
-        <v>1.006230253704723</v>
+        <v>1.030975355384868</v>
       </c>
       <c r="K13">
-        <v>1.002348743629547</v>
+        <v>1.03092681591109</v>
       </c>
       <c r="L13">
-        <v>1.006876673708846</v>
+        <v>1.036830380797245</v>
       </c>
       <c r="M13">
-        <v>1.006001327607197</v>
+        <v>1.043893779204634</v>
       </c>
       <c r="N13">
-        <v>1.006088233350775</v>
+        <v>1.014349217027789</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9763458103977168</v>
+        <v>1.024425468031617</v>
       </c>
       <c r="D14">
-        <v>0.9877766637850526</v>
+        <v>1.027440215301728</v>
       </c>
       <c r="E14">
-        <v>0.9923979735969233</v>
+        <v>1.033368772421061</v>
       </c>
       <c r="F14">
-        <v>0.9916353482122297</v>
+        <v>1.040487058253031</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040772587903128</v>
+        <v>1.030887515339962</v>
       </c>
       <c r="J14">
-        <v>1.006773963583576</v>
+        <v>1.031077868436988</v>
       </c>
       <c r="K14">
-        <v>1.002950112369485</v>
+        <v>1.031043100630885</v>
       </c>
       <c r="L14">
-        <v>1.007481850399098</v>
+        <v>1.036949389553323</v>
       </c>
       <c r="M14">
-        <v>1.00673393112507</v>
+        <v>1.04404130927844</v>
       </c>
       <c r="N14">
-        <v>1.006268584334598</v>
+        <v>1.014383160880058</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.976898268208772</v>
+        <v>1.024526695716479</v>
       </c>
       <c r="D15">
-        <v>0.9882453196918555</v>
+        <v>1.027531881063244</v>
       </c>
       <c r="E15">
-        <v>0.9928683090662467</v>
+        <v>1.033461993186644</v>
       </c>
       <c r="F15">
-        <v>0.992185607515336</v>
+        <v>1.040597765596857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040922821515167</v>
+        <v>1.030902913978226</v>
       </c>
       <c r="J15">
-        <v>1.007107596280498</v>
+        <v>1.031141013050779</v>
       </c>
       <c r="K15">
-        <v>1.003319187747893</v>
+        <v>1.031114736230345</v>
       </c>
       <c r="L15">
-        <v>1.007853300192987</v>
+        <v>1.0370227083946</v>
       </c>
       <c r="M15">
-        <v>1.007183655354538</v>
+        <v>1.044132209357397</v>
       </c>
       <c r="N15">
-        <v>1.006379252896844</v>
+        <v>1.014404068693994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9800816166878704</v>
+        <v>1.0251158444033</v>
       </c>
       <c r="D16">
-        <v>0.9909482027380633</v>
+        <v>1.028065482016923</v>
       </c>
       <c r="E16">
-        <v>0.9955814554870533</v>
+        <v>1.034004718884711</v>
       </c>
       <c r="F16">
-        <v>0.9953598270779608</v>
+        <v>1.041242383380871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041782522951649</v>
+        <v>1.030991712183697</v>
       </c>
       <c r="J16">
-        <v>1.009029022106034</v>
+        <v>1.031508280917668</v>
       </c>
       <c r="K16">
-        <v>1.005445671651403</v>
+        <v>1.03153151389811</v>
       </c>
       <c r="L16">
-        <v>1.009994035205596</v>
+        <v>1.037449357711429</v>
       </c>
       <c r="M16">
-        <v>1.009776443989389</v>
+        <v>1.04466131598574</v>
       </c>
       <c r="N16">
-        <v>1.007016619745121</v>
+        <v>1.014525667645523</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.982050809043445</v>
+        <v>1.02548536594166</v>
       </c>
       <c r="D17">
-        <v>0.9926222489943226</v>
+        <v>1.028400253611286</v>
       </c>
       <c r="E17">
-        <v>0.9972623674920984</v>
+        <v>1.03434527936542</v>
       </c>
       <c r="F17">
-        <v>0.9973264462878922</v>
+        <v>1.041646957409848</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042309023478856</v>
+        <v>1.031046682676032</v>
       </c>
       <c r="J17">
-        <v>1.010216661821661</v>
+        <v>1.031738427785412</v>
       </c>
       <c r="K17">
-        <v>1.006760885441556</v>
+        <v>1.031792794912934</v>
       </c>
       <c r="L17">
-        <v>1.01131856819517</v>
+        <v>1.037716896577057</v>
       </c>
       <c r="M17">
-        <v>1.011381515538483</v>
+        <v>1.044993235378394</v>
       </c>
       <c r="N17">
-        <v>1.007410589379606</v>
+        <v>1.014601860821943</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9831897207031818</v>
+        <v>1.025700888489385</v>
       </c>
       <c r="D18">
-        <v>0.9935911818303875</v>
+        <v>1.028595540717061</v>
       </c>
       <c r="E18">
-        <v>0.9982354585597911</v>
+        <v>1.034543966536677</v>
       </c>
       <c r="F18">
-        <v>0.9984649641472411</v>
+        <v>1.041883018448495</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042611597873147</v>
+        <v>1.031078482635009</v>
       </c>
       <c r="J18">
-        <v>1.010903195956909</v>
+        <v>1.03187258522286</v>
       </c>
       <c r="K18">
-        <v>1.007521464466046</v>
+        <v>1.031945140437326</v>
       </c>
       <c r="L18">
-        <v>1.012084719958945</v>
+        <v>1.037872915870675</v>
       </c>
       <c r="M18">
-        <v>1.012310247020212</v>
+        <v>1.0451868470162</v>
       </c>
       <c r="N18">
-        <v>1.007638333007798</v>
+        <v>1.014646273142211</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9835764427137318</v>
+        <v>1.025774373866423</v>
       </c>
       <c r="D19">
-        <v>0.9939203076799019</v>
+        <v>1.028662132018455</v>
       </c>
       <c r="E19">
-        <v>0.9985660282492381</v>
+        <v>1.034611721161258</v>
       </c>
       <c r="F19">
-        <v>0.9988517369887011</v>
+        <v>1.041963522681065</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042714007545199</v>
+        <v>1.03108928090143</v>
       </c>
       <c r="J19">
-        <v>1.011136249551984</v>
+        <v>1.031918315283432</v>
       </c>
       <c r="K19">
-        <v>1.007779704393036</v>
+        <v>1.031997076923217</v>
       </c>
       <c r="L19">
-        <v>1.012344883296624</v>
+        <v>1.037926109033804</v>
       </c>
       <c r="M19">
-        <v>1.012625670397691</v>
+        <v>1.045252865027533</v>
       </c>
       <c r="N19">
-        <v>1.00771564422566</v>
+        <v>1.014661411520558</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9818405411612561</v>
+        <v>1.025445721129816</v>
       </c>
       <c r="D20">
-        <v>0.9924434209338372</v>
+        <v>1.02836433365955</v>
       </c>
       <c r="E20">
-        <v>0.9970827869052736</v>
+        <v>1.03430873589003</v>
       </c>
       <c r="F20">
-        <v>0.9971163393287634</v>
+        <v>1.041603542179731</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04225300463091</v>
+        <v>1.031040812102107</v>
       </c>
       <c r="J20">
-        <v>1.010089883594349</v>
+        <v>1.03171374381892</v>
       </c>
       <c r="K20">
-        <v>1.006620457955507</v>
+        <v>1.031764767643492</v>
       </c>
       <c r="L20">
-        <v>1.011177126678539</v>
+        <v>1.037688195451525</v>
       </c>
       <c r="M20">
-        <v>1.011210084662087</v>
+        <v>1.044957622665943</v>
       </c>
       <c r="N20">
-        <v>1.007368533540292</v>
+        <v>1.014593689102783</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9760811894420118</v>
+        <v>1.024377086492142</v>
       </c>
       <c r="D21">
-        <v>0.9875522267963934</v>
+        <v>1.027396405686193</v>
       </c>
       <c r="E21">
-        <v>0.9921727425109288</v>
+        <v>1.033324220910851</v>
       </c>
       <c r="F21">
-        <v>0.9913718438868552</v>
+        <v>1.040434151181647</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040700522271556</v>
+        <v>1.030880141080888</v>
       </c>
       <c r="J21">
-        <v>1.006614139843848</v>
+        <v>1.031047684451053</v>
       </c>
       <c r="K21">
-        <v>1.002773326867282</v>
+        <v>1.031008860022237</v>
       </c>
       <c r="L21">
-        <v>1.007303937673792</v>
+        <v>1.036914345768801</v>
       </c>
       <c r="M21">
-        <v>1.006518544053614</v>
+        <v>1.043997864944999</v>
       </c>
       <c r="N21">
-        <v>1.006215569852501</v>
+        <v>1.014373166534726</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.972366750088679</v>
+        <v>1.023705079341809</v>
       </c>
       <c r="D22">
-        <v>0.9844048330987032</v>
+        <v>1.026788022810654</v>
       </c>
       <c r="E22">
-        <v>0.989014894166491</v>
+        <v>1.032705620514006</v>
       </c>
       <c r="F22">
-        <v>0.9876773671517901</v>
+        <v>1.03969963380159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039681967030318</v>
+        <v>1.030776752525817</v>
       </c>
       <c r="J22">
-        <v>1.004369599516016</v>
+        <v>1.030628160949615</v>
       </c>
       <c r="K22">
-        <v>1.000291695789358</v>
+        <v>1.030533098819067</v>
       </c>
       <c r="L22">
-        <v>1.004807155009627</v>
+        <v>1.036427516503434</v>
       </c>
       <c r="M22">
-        <v>1.003496955097867</v>
+        <v>1.043394510847176</v>
       </c>
       <c r="N22">
-        <v>1.005471064583602</v>
+        <v>1.014234248075235</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9743449960516612</v>
+        <v>1.024061333673153</v>
       </c>
       <c r="D23">
-        <v>0.9860803860042161</v>
+        <v>1.02711051955119</v>
       </c>
       <c r="E23">
-        <v>0.9906958561082815</v>
+        <v>1.033033513736829</v>
       </c>
       <c r="F23">
-        <v>0.9896439904802427</v>
+        <v>1.04008894634758</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040226031537702</v>
+        <v>1.030831785019704</v>
       </c>
       <c r="J23">
-        <v>1.005565255831468</v>
+        <v>1.030850628711641</v>
       </c>
       <c r="K23">
-        <v>1.001613392301404</v>
+        <v>1.030785355195706</v>
       </c>
       <c r="L23">
-        <v>1.00613676697209</v>
+        <v>1.036685620116332</v>
       </c>
       <c r="M23">
-        <v>1.005105790545989</v>
+        <v>1.043714352070957</v>
       </c>
       <c r="N23">
-        <v>1.005867653809407</v>
+        <v>1.014307916610288</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9819355820321451</v>
+        <v>1.025463634954271</v>
       </c>
       <c r="D24">
-        <v>0.9925242487986359</v>
+        <v>1.028380564276294</v>
       </c>
       <c r="E24">
-        <v>0.9971639543299594</v>
+        <v>1.034325248177639</v>
       </c>
       <c r="F24">
-        <v>0.997211304071321</v>
+        <v>1.041623159406706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042278331101141</v>
+        <v>1.03104346557566</v>
       </c>
       <c r="J24">
-        <v>1.010147188330321</v>
+        <v>1.031724897698382</v>
       </c>
       <c r="K24">
-        <v>1.006683931334957</v>
+        <v>1.031777432130937</v>
       </c>
       <c r="L24">
-        <v>1.011241057831354</v>
+        <v>1.037701164352387</v>
       </c>
       <c r="M24">
-        <v>1.011287569963697</v>
+        <v>1.044973714490982</v>
       </c>
       <c r="N24">
-        <v>1.007387543094167</v>
+        <v>1.014597381643229</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9903666738947393</v>
+        <v>1.027090410864232</v>
       </c>
       <c r="D25">
-        <v>0.999709285008675</v>
+        <v>1.029855180698165</v>
       </c>
       <c r="E25">
-        <v>1.004383133355408</v>
+        <v>1.035825956613088</v>
       </c>
       <c r="F25">
-        <v>1.005658558642795</v>
+        <v>1.043406657561706</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044483137376863</v>
+        <v>1.031278773885888</v>
       </c>
       <c r="J25">
-        <v>1.015222644737855</v>
+        <v>1.03273616618273</v>
       </c>
       <c r="K25">
-        <v>1.012312115629872</v>
+        <v>1.0329265108154</v>
       </c>
       <c r="L25">
-        <v>1.016913785756156</v>
+        <v>1.038878404324673</v>
       </c>
       <c r="M25">
-        <v>1.018169663294515</v>
+        <v>1.046435471615888</v>
       </c>
       <c r="N25">
-        <v>1.009071254783115</v>
+        <v>1.014932116885565</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028387484464507</v>
+        <v>0.9968156336328794</v>
       </c>
       <c r="D2">
-        <v>1.031031937333478</v>
+        <v>1.005225141143768</v>
       </c>
       <c r="E2">
-        <v>1.037024270101197</v>
+        <v>1.009931016994439</v>
       </c>
       <c r="F2">
-        <v>1.044831663553818</v>
+        <v>1.012152241303902</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031458094441068</v>
+        <v>1.046107102115163</v>
       </c>
       <c r="J2">
-        <v>1.033540083901993</v>
+        <v>1.019092007503851</v>
       </c>
       <c r="K2">
-        <v>1.033841229938427</v>
+        <v>1.016612158281611</v>
       </c>
       <c r="L2">
-        <v>1.039816336229628</v>
+        <v>1.021253709285518</v>
       </c>
       <c r="M2">
-        <v>1.047601607058841</v>
+        <v>1.023444832910734</v>
       </c>
       <c r="N2">
-        <v>1.015198144459557</v>
+        <v>1.010354866995297</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029329010817944</v>
+        <v>1.001351085026502</v>
       </c>
       <c r="D3">
-        <v>1.031886700390661</v>
+        <v>1.009114984603636</v>
       </c>
       <c r="E3">
-        <v>1.037895119148667</v>
+        <v>1.013846874274835</v>
       </c>
       <c r="F3">
-        <v>1.045867775930881</v>
+        <v>1.016737334618915</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031583434463904</v>
+        <v>1.047211738372239</v>
       </c>
       <c r="J3">
-        <v>1.034122238610532</v>
+        <v>1.021804985743084</v>
       </c>
       <c r="K3">
-        <v>1.034504347739644</v>
+        <v>1.019632550965138</v>
       </c>
       <c r="L3">
-        <v>1.040496745678366</v>
+        <v>1.024305595144674</v>
       </c>
       <c r="M3">
-        <v>1.04844845112498</v>
+        <v>1.027160445147943</v>
       </c>
       <c r="N3">
-        <v>1.015390744270464</v>
+        <v>1.011254825325762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029938115781053</v>
+        <v>1.004221642423848</v>
       </c>
       <c r="D4">
-        <v>1.03243993731929</v>
+        <v>1.011581560082771</v>
       </c>
       <c r="E4">
-        <v>1.03845896593425</v>
+        <v>1.016331553689369</v>
       </c>
       <c r="F4">
-        <v>1.046538867688036</v>
+        <v>1.019647578084732</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031662283087776</v>
+        <v>1.047893101394041</v>
       </c>
       <c r="J4">
-        <v>1.03449820466779</v>
+        <v>1.023517971191235</v>
       </c>
       <c r="K4">
-        <v>1.034932938515112</v>
+        <v>1.021542186913473</v>
       </c>
       <c r="L4">
-        <v>1.040936728023079</v>
+        <v>1.026236787483914</v>
       </c>
       <c r="M4">
-        <v>1.048996469606627</v>
+        <v>1.029514519158852</v>
       </c>
       <c r="N4">
-        <v>1.015515108448591</v>
+        <v>1.011823031968252</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030194152657535</v>
+        <v>1.00541359767071</v>
       </c>
       <c r="D5">
-        <v>1.032672552384074</v>
+        <v>1.012606839854471</v>
       </c>
       <c r="E5">
-        <v>1.038696089599414</v>
+        <v>1.017364748096542</v>
       </c>
       <c r="F5">
-        <v>1.046821151123285</v>
+        <v>1.020857976229278</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031694890465212</v>
+        <v>1.048171695165931</v>
       </c>
       <c r="J5">
-        <v>1.034656085857271</v>
+        <v>1.024228239444899</v>
       </c>
       <c r="K5">
-        <v>1.03511299958756</v>
+        <v>1.022334610044067</v>
       </c>
       <c r="L5">
-        <v>1.041121626709795</v>
+        <v>1.027038555784106</v>
       </c>
       <c r="M5">
-        <v>1.049226868476703</v>
+        <v>1.030492559187363</v>
       </c>
       <c r="N5">
-        <v>1.01556732839164</v>
+        <v>1.012058622542017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030237140543461</v>
+        <v>1.005612877864267</v>
       </c>
       <c r="D6">
-        <v>1.032711611451293</v>
+        <v>1.01277831585606</v>
       </c>
       <c r="E6">
-        <v>1.038735908509744</v>
+        <v>1.017537570797527</v>
       </c>
       <c r="F6">
-        <v>1.046868556899635</v>
+        <v>1.021060454761313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031700333664033</v>
+        <v>1.04821801600952</v>
       </c>
       <c r="J6">
-        <v>1.034682584518644</v>
+        <v>1.024346926267895</v>
       </c>
       <c r="K6">
-        <v>1.03514322565656</v>
+        <v>1.022467061443093</v>
       </c>
       <c r="L6">
-        <v>1.041152667887358</v>
+        <v>1.027172592890364</v>
       </c>
       <c r="M6">
-        <v>1.049265554130441</v>
+        <v>1.030656106672581</v>
       </c>
       <c r="N6">
-        <v>1.015576092660183</v>
+        <v>1.012097989455844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029941537080554</v>
+        <v>1.00423762695583</v>
       </c>
       <c r="D7">
-        <v>1.032443045400062</v>
+        <v>1.01159530525469</v>
       </c>
       <c r="E7">
-        <v>1.038462134069623</v>
+        <v>1.016345403424256</v>
       </c>
       <c r="F7">
-        <v>1.046542638959609</v>
+        <v>1.019663802206648</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031662720914289</v>
+        <v>1.047896854638053</v>
       </c>
       <c r="J7">
-        <v>1.034500314972521</v>
+        <v>1.023527500227046</v>
       </c>
       <c r="K7">
-        <v>1.034935344966825</v>
+        <v>1.021552815704922</v>
       </c>
       <c r="L7">
-        <v>1.040939198924183</v>
+        <v>1.026247540033448</v>
       </c>
       <c r="M7">
-        <v>1.048999548162071</v>
+        <v>1.029527632892989</v>
       </c>
       <c r="N7">
-        <v>1.015515806461036</v>
+        <v>1.01182619271617</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028705703223361</v>
+        <v>0.998362033513153</v>
       </c>
       <c r="D8">
-        <v>1.031320777138377</v>
+        <v>1.006550418096872</v>
       </c>
       <c r="E8">
-        <v>1.037318504629932</v>
+        <v>1.011264821803584</v>
       </c>
       <c r="F8">
-        <v>1.045181685781894</v>
+        <v>1.013713819122283</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031500920076984</v>
+        <v>1.046487428416033</v>
       </c>
       <c r="J8">
-        <v>1.033736975793726</v>
+        <v>1.020017856623124</v>
       </c>
       <c r="K8">
-        <v>1.034065434728197</v>
+        <v>1.017642384898606</v>
       </c>
       <c r="L8">
-        <v>1.040046342878873</v>
+        <v>1.022294335668084</v>
       </c>
       <c r="M8">
-        <v>1.047887790268563</v>
+        <v>1.024711177765301</v>
       </c>
       <c r="N8">
-        <v>1.015263288267741</v>
+        <v>1.010661998067162</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026527078928655</v>
+        <v>0.9874912082901269</v>
       </c>
       <c r="D9">
-        <v>1.029344383040099</v>
+        <v>0.9972554928904146</v>
       </c>
       <c r="E9">
-        <v>1.035306007274238</v>
+        <v>1.001916771131538</v>
       </c>
       <c r="F9">
-        <v>1.042788594123732</v>
+        <v>1.002772384835361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031198571993396</v>
+        <v>1.04374087763795</v>
       </c>
       <c r="J9">
-        <v>1.03238634624392</v>
+        <v>1.013493550773481</v>
       </c>
       <c r="K9">
-        <v>1.032528826259711</v>
+        <v>1.010393255303001</v>
       </c>
       <c r="L9">
-        <v>1.038470850608647</v>
+        <v>1.014978826422135</v>
       </c>
       <c r="M9">
-        <v>1.04592918450924</v>
+        <v>1.015820641602936</v>
       </c>
       <c r="N9">
-        <v>1.014816335923118</v>
+        <v>1.00849764548321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025074083152964</v>
+        <v>0.979857748927075</v>
       </c>
       <c r="D10">
-        <v>1.028027652403366</v>
+        <v>0.9907579887963529</v>
       </c>
       <c r="E10">
-        <v>1.033966238250516</v>
+        <v>0.9953904864704962</v>
       </c>
       <c r="F10">
-        <v>1.041196673446645</v>
+        <v>0.9951364019837968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030985464365345</v>
+        <v>1.041722405663721</v>
       </c>
       <c r="J10">
-        <v>1.031482260848811</v>
+        <v>1.008893958046109</v>
       </c>
       <c r="K10">
-        <v>1.031501979170597</v>
+        <v>1.005296139938973</v>
       </c>
       <c r="L10">
-        <v>1.037419118987907</v>
+        <v>1.009843468863497</v>
       </c>
       <c r="M10">
-        <v>1.044623807092624</v>
+        <v>1.009594028976111</v>
       </c>
       <c r="N10">
-        <v>1.014517053048315</v>
+        <v>1.006971816128831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024444790880234</v>
+        <v>0.9764513919203618</v>
       </c>
       <c r="D11">
-        <v>1.027457712523307</v>
+        <v>0.9878662201642288</v>
       </c>
       <c r="E11">
-        <v>1.033386566181675</v>
+        <v>0.9924878486882193</v>
       </c>
       <c r="F11">
-        <v>1.040508189478023</v>
+        <v>0.9917404956855028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030890457885435</v>
+        <v>1.040801322477305</v>
       </c>
       <c r="J11">
-        <v>1.031089922708757</v>
+        <v>1.006837728759247</v>
       </c>
       <c r="K11">
-        <v>1.031056775349211</v>
+        <v>1.003020647829133</v>
       </c>
       <c r="L11">
-        <v>1.036963385287218</v>
+        <v>1.007552837431025</v>
       </c>
       <c r="M11">
-        <v>1.044058660490133</v>
+        <v>1.006819873388097</v>
       </c>
       <c r="N11">
-        <v>1.014387152197579</v>
+        <v>1.006289735675486</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024211023933834</v>
+        <v>0.9751700748270323</v>
       </c>
       <c r="D12">
-        <v>1.027246044547693</v>
+        <v>0.9867796862611796</v>
       </c>
       <c r="E12">
-        <v>1.033171319778631</v>
+        <v>0.991397518799494</v>
       </c>
       <c r="F12">
-        <v>1.040252581141893</v>
+        <v>0.9904648872865137</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030854758853289</v>
+        <v>1.040451877472713</v>
       </c>
       <c r="J12">
-        <v>1.030944061930984</v>
+        <v>1.006063767186598</v>
       </c>
       <c r="K12">
-        <v>1.030891321704181</v>
+        <v>1.002164626467857</v>
       </c>
       <c r="L12">
-        <v>1.036794057165835</v>
+        <v>1.006691405620001</v>
       </c>
       <c r="M12">
-        <v>1.043848754272705</v>
+        <v>1.005777073711122</v>
       </c>
       <c r="N12">
-        <v>1.014338855036598</v>
+        <v>1.006033009497588</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024261168623042</v>
+        <v>0.9754456623827845</v>
       </c>
       <c r="D13">
-        <v>1.027291446533696</v>
+        <v>0.9870133234453446</v>
       </c>
       <c r="E13">
-        <v>1.033217487696786</v>
+        <v>0.9916319592816748</v>
       </c>
       <c r="F13">
-        <v>1.040307404315786</v>
+        <v>0.9907391660579313</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030862434932104</v>
+        <v>1.040527169653094</v>
       </c>
       <c r="J13">
-        <v>1.030975355384868</v>
+        <v>1.006230253704723</v>
       </c>
       <c r="K13">
-        <v>1.03092681591109</v>
+        <v>1.002348743629547</v>
       </c>
       <c r="L13">
-        <v>1.036830380797245</v>
+        <v>1.006876673708846</v>
       </c>
       <c r="M13">
-        <v>1.043893779204634</v>
+        <v>1.006001327607198</v>
       </c>
       <c r="N13">
-        <v>1.014349217027789</v>
+        <v>1.006088233350775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024425468031617</v>
+        <v>0.9763458103977168</v>
       </c>
       <c r="D14">
-        <v>1.027440215301728</v>
+        <v>0.9877766637850529</v>
       </c>
       <c r="E14">
-        <v>1.033368772421061</v>
+        <v>0.9923979735969235</v>
       </c>
       <c r="F14">
-        <v>1.040487058253031</v>
+        <v>0.99163534821223</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030887515339962</v>
+        <v>1.040772587903129</v>
       </c>
       <c r="J14">
-        <v>1.031077868436988</v>
+        <v>1.006773963583577</v>
       </c>
       <c r="K14">
-        <v>1.031043100630885</v>
+        <v>1.002950112369485</v>
       </c>
       <c r="L14">
-        <v>1.036949389553323</v>
+        <v>1.007481850399098</v>
       </c>
       <c r="M14">
-        <v>1.04404130927844</v>
+        <v>1.00673393112507</v>
       </c>
       <c r="N14">
-        <v>1.014383160880058</v>
+        <v>1.006268584334598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024526695716479</v>
+        <v>0.976898268208771</v>
       </c>
       <c r="D15">
-        <v>1.027531881063244</v>
+        <v>0.9882453196918546</v>
       </c>
       <c r="E15">
-        <v>1.033461993186644</v>
+        <v>0.9928683090662458</v>
       </c>
       <c r="F15">
-        <v>1.040597765596857</v>
+        <v>0.9921856075153348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030902913978226</v>
+        <v>1.040922821515167</v>
       </c>
       <c r="J15">
-        <v>1.031141013050779</v>
+        <v>1.007107596280497</v>
       </c>
       <c r="K15">
-        <v>1.031114736230345</v>
+        <v>1.003319187747892</v>
       </c>
       <c r="L15">
-        <v>1.0370227083946</v>
+        <v>1.007853300192986</v>
       </c>
       <c r="M15">
-        <v>1.044132209357397</v>
+        <v>1.007183655354536</v>
       </c>
       <c r="N15">
-        <v>1.014404068693994</v>
+        <v>1.006379252896844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0251158444033</v>
+        <v>0.9800816166878696</v>
       </c>
       <c r="D16">
-        <v>1.028065482016923</v>
+        <v>0.9909482027380626</v>
       </c>
       <c r="E16">
-        <v>1.034004718884711</v>
+        <v>0.9955814554870523</v>
       </c>
       <c r="F16">
-        <v>1.041242383380871</v>
+        <v>0.9953598270779602</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030991712183697</v>
+        <v>1.041782522951649</v>
       </c>
       <c r="J16">
-        <v>1.031508280917668</v>
+        <v>1.009029022106034</v>
       </c>
       <c r="K16">
-        <v>1.03153151389811</v>
+        <v>1.005445671651403</v>
       </c>
       <c r="L16">
-        <v>1.037449357711429</v>
+        <v>1.009994035205596</v>
       </c>
       <c r="M16">
-        <v>1.04466131598574</v>
+        <v>1.009776443989388</v>
       </c>
       <c r="N16">
-        <v>1.014525667645523</v>
+        <v>1.007016619745121</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02548536594166</v>
+        <v>0.9820508090434433</v>
       </c>
       <c r="D17">
-        <v>1.028400253611286</v>
+        <v>0.9926222489943205</v>
       </c>
       <c r="E17">
-        <v>1.03434527936542</v>
+        <v>0.9972623674920968</v>
       </c>
       <c r="F17">
-        <v>1.041646957409848</v>
+        <v>0.9973264462878906</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031046682676032</v>
+        <v>1.042309023478855</v>
       </c>
       <c r="J17">
-        <v>1.031738427785412</v>
+        <v>1.01021666182166</v>
       </c>
       <c r="K17">
-        <v>1.031792794912934</v>
+        <v>1.006760885441554</v>
       </c>
       <c r="L17">
-        <v>1.037716896577057</v>
+        <v>1.011318568195169</v>
       </c>
       <c r="M17">
-        <v>1.044993235378394</v>
+        <v>1.011381515538481</v>
       </c>
       <c r="N17">
-        <v>1.014601860821943</v>
+        <v>1.007410589379606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025700888489385</v>
+        <v>0.9831897207031813</v>
       </c>
       <c r="D18">
-        <v>1.028595540717061</v>
+        <v>0.9935911818303871</v>
       </c>
       <c r="E18">
-        <v>1.034543966536677</v>
+        <v>0.9982354585597908</v>
       </c>
       <c r="F18">
-        <v>1.041883018448495</v>
+        <v>0.9984649641472404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031078482635009</v>
+        <v>1.042611597873147</v>
       </c>
       <c r="J18">
-        <v>1.03187258522286</v>
+        <v>1.010903195956909</v>
       </c>
       <c r="K18">
-        <v>1.031945140437326</v>
+        <v>1.007521464466046</v>
       </c>
       <c r="L18">
-        <v>1.037872915870675</v>
+        <v>1.012084719958945</v>
       </c>
       <c r="M18">
-        <v>1.0451868470162</v>
+        <v>1.012310247020212</v>
       </c>
       <c r="N18">
-        <v>1.014646273142211</v>
+        <v>1.007638333007798</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025774373866423</v>
+        <v>0.9835764427137319</v>
       </c>
       <c r="D19">
-        <v>1.028662132018455</v>
+        <v>0.9939203076799022</v>
       </c>
       <c r="E19">
-        <v>1.034611721161258</v>
+        <v>0.9985660282492387</v>
       </c>
       <c r="F19">
-        <v>1.041963522681065</v>
+        <v>0.9988517369887018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03108928090143</v>
+        <v>1.042714007545199</v>
       </c>
       <c r="J19">
-        <v>1.031918315283432</v>
+        <v>1.011136249551985</v>
       </c>
       <c r="K19">
-        <v>1.031997076923217</v>
+        <v>1.007779704393036</v>
       </c>
       <c r="L19">
-        <v>1.037926109033804</v>
+        <v>1.012344883296624</v>
       </c>
       <c r="M19">
-        <v>1.045252865027533</v>
+        <v>1.012625670397692</v>
       </c>
       <c r="N19">
-        <v>1.014661411520558</v>
+        <v>1.00771564422566</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025445721129816</v>
+        <v>0.9818405411612551</v>
       </c>
       <c r="D20">
-        <v>1.02836433365955</v>
+        <v>0.9924434209338363</v>
       </c>
       <c r="E20">
-        <v>1.03430873589003</v>
+        <v>0.9970827869052726</v>
       </c>
       <c r="F20">
-        <v>1.041603542179731</v>
+        <v>0.9971163393287622</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031040812102107</v>
+        <v>1.042253004630909</v>
       </c>
       <c r="J20">
-        <v>1.03171374381892</v>
+        <v>1.010089883594348</v>
       </c>
       <c r="K20">
-        <v>1.031764767643492</v>
+        <v>1.006620457955506</v>
       </c>
       <c r="L20">
-        <v>1.037688195451525</v>
+        <v>1.011177126678537</v>
       </c>
       <c r="M20">
-        <v>1.044957622665943</v>
+        <v>1.011210084662086</v>
       </c>
       <c r="N20">
-        <v>1.014593689102783</v>
+        <v>1.007368533540292</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024377086492142</v>
+        <v>0.9760811894420109</v>
       </c>
       <c r="D21">
-        <v>1.027396405686193</v>
+        <v>0.987552226796392</v>
       </c>
       <c r="E21">
-        <v>1.033324220910851</v>
+        <v>0.9921727425109275</v>
       </c>
       <c r="F21">
-        <v>1.040434151181647</v>
+        <v>0.991371843886854</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030880141080888</v>
+        <v>1.040700522271555</v>
       </c>
       <c r="J21">
-        <v>1.031047684451053</v>
+        <v>1.006614139843848</v>
       </c>
       <c r="K21">
-        <v>1.031008860022237</v>
+        <v>1.00277332686728</v>
       </c>
       <c r="L21">
-        <v>1.036914345768801</v>
+        <v>1.007303937673791</v>
       </c>
       <c r="M21">
-        <v>1.043997864944999</v>
+        <v>1.006518544053613</v>
       </c>
       <c r="N21">
-        <v>1.014373166534726</v>
+        <v>1.006215569852501</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023705079341809</v>
+        <v>0.972366750088679</v>
       </c>
       <c r="D22">
-        <v>1.026788022810654</v>
+        <v>0.9844048330987029</v>
       </c>
       <c r="E22">
-        <v>1.032705620514006</v>
+        <v>0.9890148941664906</v>
       </c>
       <c r="F22">
-        <v>1.03969963380159</v>
+        <v>0.9876773671517898</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030776752525817</v>
+        <v>1.039681967030318</v>
       </c>
       <c r="J22">
-        <v>1.030628160949615</v>
+        <v>1.004369599516016</v>
       </c>
       <c r="K22">
-        <v>1.030533098819067</v>
+        <v>1.000291695789358</v>
       </c>
       <c r="L22">
-        <v>1.036427516503434</v>
+        <v>1.004807155009626</v>
       </c>
       <c r="M22">
-        <v>1.043394510847176</v>
+        <v>1.003496955097866</v>
       </c>
       <c r="N22">
-        <v>1.014234248075235</v>
+        <v>1.005471064583601</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024061333673153</v>
+        <v>0.9743449960516606</v>
       </c>
       <c r="D23">
-        <v>1.02711051955119</v>
+        <v>0.9860803860042157</v>
       </c>
       <c r="E23">
-        <v>1.033033513736829</v>
+        <v>0.990695856108281</v>
       </c>
       <c r="F23">
-        <v>1.04008894634758</v>
+        <v>0.9896439904802418</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030831785019704</v>
+        <v>1.040226031537701</v>
       </c>
       <c r="J23">
-        <v>1.030850628711641</v>
+        <v>1.005565255831468</v>
       </c>
       <c r="K23">
-        <v>1.030785355195706</v>
+        <v>1.001613392301404</v>
       </c>
       <c r="L23">
-        <v>1.036685620116332</v>
+        <v>1.006136766972089</v>
       </c>
       <c r="M23">
-        <v>1.043714352070957</v>
+        <v>1.005105790545988</v>
       </c>
       <c r="N23">
-        <v>1.014307916610288</v>
+        <v>1.005867653809407</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025463634954271</v>
+        <v>0.981935582032145</v>
       </c>
       <c r="D24">
-        <v>1.028380564276294</v>
+        <v>0.9925242487986359</v>
       </c>
       <c r="E24">
-        <v>1.034325248177639</v>
+        <v>0.9971639543299592</v>
       </c>
       <c r="F24">
-        <v>1.041623159406706</v>
+        <v>0.9972113040713209</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03104346557566</v>
+        <v>1.042278331101141</v>
       </c>
       <c r="J24">
-        <v>1.031724897698382</v>
+        <v>1.010147188330321</v>
       </c>
       <c r="K24">
-        <v>1.031777432130937</v>
+        <v>1.006683931334957</v>
       </c>
       <c r="L24">
-        <v>1.037701164352387</v>
+        <v>1.011241057831354</v>
       </c>
       <c r="M24">
-        <v>1.044973714490982</v>
+        <v>1.011287569963697</v>
       </c>
       <c r="N24">
-        <v>1.014597381643229</v>
+        <v>1.007387543094167</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027090410864232</v>
+        <v>0.9903666738947393</v>
       </c>
       <c r="D25">
-        <v>1.029855180698165</v>
+        <v>0.9997092850086752</v>
       </c>
       <c r="E25">
-        <v>1.035825956613088</v>
+        <v>1.004383133355408</v>
       </c>
       <c r="F25">
-        <v>1.043406657561706</v>
+        <v>1.005658558642795</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031278773885888</v>
+        <v>1.044483137376863</v>
       </c>
       <c r="J25">
-        <v>1.03273616618273</v>
+        <v>1.015222644737855</v>
       </c>
       <c r="K25">
-        <v>1.0329265108154</v>
+        <v>1.012312115629872</v>
       </c>
       <c r="L25">
-        <v>1.038878404324673</v>
+        <v>1.016913785756155</v>
       </c>
       <c r="M25">
-        <v>1.046435471615888</v>
+        <v>1.018169663294515</v>
       </c>
       <c r="N25">
-        <v>1.014932116885565</v>
+        <v>1.009071254783115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968156336328794</v>
+        <v>1.003958433235852</v>
       </c>
       <c r="D2">
-        <v>1.005225141143768</v>
+        <v>1.016001701612962</v>
       </c>
       <c r="E2">
-        <v>1.009931016994439</v>
+        <v>1.018509964303395</v>
       </c>
       <c r="F2">
-        <v>1.012152241303902</v>
+        <v>1.026599297187983</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046107102115163</v>
+        <v>1.044439540639994</v>
       </c>
       <c r="J2">
-        <v>1.019092007503851</v>
+        <v>1.026021389436532</v>
       </c>
       <c r="K2">
-        <v>1.016612158281611</v>
+        <v>1.027242519254707</v>
       </c>
       <c r="L2">
-        <v>1.021253709285518</v>
+        <v>1.029717311011832</v>
       </c>
       <c r="M2">
-        <v>1.023444832910734</v>
+        <v>1.037700093597331</v>
       </c>
       <c r="N2">
-        <v>1.010354866995297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012529222607267</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038409482647236</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03033294464863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001351085026502</v>
+        <v>1.00741324997988</v>
       </c>
       <c r="D3">
-        <v>1.009114984603636</v>
+        <v>1.018488640154777</v>
       </c>
       <c r="E3">
-        <v>1.013846874274835</v>
+        <v>1.021228252647148</v>
       </c>
       <c r="F3">
-        <v>1.016737334618915</v>
+        <v>1.029329539871872</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047211738372239</v>
+        <v>1.044899021361265</v>
       </c>
       <c r="J3">
-        <v>1.021804985743084</v>
+        <v>1.027703842347278</v>
       </c>
       <c r="K3">
-        <v>1.019632550965138</v>
+        <v>1.028890296944918</v>
       </c>
       <c r="L3">
-        <v>1.024305595144674</v>
+        <v>1.031596532168986</v>
       </c>
       <c r="M3">
-        <v>1.027160445147943</v>
+        <v>1.039600408616246</v>
       </c>
       <c r="N3">
-        <v>1.011254825325762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013103091895578</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039913457372711</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031495398694113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004221642423848</v>
+        <v>1.009611880392361</v>
       </c>
       <c r="D4">
-        <v>1.011581560082771</v>
+        <v>1.020077948174977</v>
       </c>
       <c r="E4">
-        <v>1.016331553689369</v>
+        <v>1.022964168606075</v>
       </c>
       <c r="F4">
-        <v>1.019647578084732</v>
+        <v>1.031074996420934</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047893101394041</v>
+        <v>1.045180086493377</v>
       </c>
       <c r="J4">
-        <v>1.023517971191235</v>
+        <v>1.028772868595293</v>
       </c>
       <c r="K4">
-        <v>1.021542186913473</v>
+        <v>1.029939941966302</v>
       </c>
       <c r="L4">
-        <v>1.026236787483914</v>
+        <v>1.032793116811007</v>
       </c>
       <c r="M4">
-        <v>1.029514519158852</v>
+        <v>1.040812299809197</v>
       </c>
       <c r="N4">
-        <v>1.011823031968252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013467617038027</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040872588139546</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03223850951768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00541359767071</v>
+        <v>1.010531073879295</v>
       </c>
       <c r="D5">
-        <v>1.012606839854471</v>
+        <v>1.020746861754943</v>
       </c>
       <c r="E5">
-        <v>1.017364748096542</v>
+        <v>1.023691477888942</v>
       </c>
       <c r="F5">
-        <v>1.020857976229278</v>
+        <v>1.031806155366647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048171695165931</v>
+        <v>1.045295633244445</v>
       </c>
       <c r="J5">
-        <v>1.024228239444899</v>
+        <v>1.029221077846362</v>
       </c>
       <c r="K5">
-        <v>1.022334610044067</v>
+        <v>1.030382687305392</v>
       </c>
       <c r="L5">
-        <v>1.027038555784106</v>
+        <v>1.033294485932632</v>
       </c>
       <c r="M5">
-        <v>1.030492559187363</v>
+        <v>1.041319915979779</v>
       </c>
       <c r="N5">
-        <v>1.012058622542017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013620662110663</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041274331984608</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032558817489418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005612877864267</v>
+        <v>1.010689153120268</v>
       </c>
       <c r="D6">
-        <v>1.01277831585606</v>
+        <v>1.020865500380592</v>
       </c>
       <c r="E6">
-        <v>1.017537570797527</v>
+        <v>1.023816821130671</v>
       </c>
       <c r="F6">
-        <v>1.021060454761313</v>
+        <v>1.03193145255029</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04821801600952</v>
+        <v>1.045316326878537</v>
       </c>
       <c r="J6">
-        <v>1.024346926267895</v>
+        <v>1.02930020495969</v>
       </c>
       <c r="K6">
-        <v>1.022467061443093</v>
+        <v>1.03046332227676</v>
       </c>
       <c r="L6">
-        <v>1.027172592890364</v>
+        <v>1.033381901397934</v>
       </c>
       <c r="M6">
-        <v>1.030656106672581</v>
+        <v>1.041407694485422</v>
       </c>
       <c r="N6">
-        <v>1.012097989455844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013647970123455</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041343802708583</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032624666781726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00423762695583</v>
+        <v>1.009635639482757</v>
       </c>
       <c r="D7">
-        <v>1.01159530525469</v>
+        <v>1.020104631028681</v>
       </c>
       <c r="E7">
-        <v>1.016345403424256</v>
+        <v>1.022983454529602</v>
       </c>
       <c r="F7">
-        <v>1.019663802206648</v>
+        <v>1.031092395220575</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047896854638053</v>
+        <v>1.045185745524734</v>
       </c>
       <c r="J7">
-        <v>1.023527500227046</v>
+        <v>1.02879003372096</v>
       </c>
       <c r="K7">
-        <v>1.021552815704922</v>
+        <v>1.02996339616218</v>
       </c>
       <c r="L7">
-        <v>1.026247540033448</v>
+        <v>1.032809271613092</v>
       </c>
       <c r="M7">
-        <v>1.029527632892989</v>
+        <v>1.040826623417609</v>
       </c>
       <c r="N7">
-        <v>1.01182619271617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013474271626038</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040883924309289</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032275410607321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998362033513153</v>
+        <v>1.005148261678628</v>
       </c>
       <c r="D8">
-        <v>1.006550418096872</v>
+        <v>1.016868486141975</v>
       </c>
       <c r="E8">
-        <v>1.011264821803584</v>
+        <v>1.019445555297609</v>
       </c>
       <c r="F8">
-        <v>1.013713819122283</v>
+        <v>1.027536098891366</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046487428416033</v>
+        <v>1.044603403674232</v>
       </c>
       <c r="J8">
-        <v>1.020017856623124</v>
+        <v>1.026608170587035</v>
       </c>
       <c r="K8">
-        <v>1.017642384898606</v>
+        <v>1.027824709932746</v>
       </c>
       <c r="L8">
-        <v>1.022294335668084</v>
+        <v>1.030368412117752</v>
       </c>
       <c r="M8">
-        <v>1.024711177765301</v>
+        <v>1.038355559957065</v>
       </c>
       <c r="N8">
-        <v>1.010661998067162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012730433159668</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038928241645523</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030767767489842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9874912082901269</v>
+        <v>0.9969289212326622</v>
       </c>
       <c r="D9">
-        <v>0.9972554928904146</v>
+        <v>1.010979586236664</v>
       </c>
       <c r="E9">
-        <v>1.001916771131538</v>
+        <v>1.01301338404102</v>
       </c>
       <c r="F9">
-        <v>1.002772384835361</v>
+        <v>1.021088721099362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04374087763795</v>
+        <v>1.043444614355491</v>
       </c>
       <c r="J9">
-        <v>1.013493550773481</v>
+        <v>1.022590595265031</v>
       </c>
       <c r="K9">
-        <v>1.010393255303001</v>
+        <v>1.023897004016791</v>
       </c>
       <c r="L9">
-        <v>1.014978826422135</v>
+        <v>1.02589879842587</v>
       </c>
       <c r="M9">
-        <v>1.015820641602936</v>
+        <v>1.03384866961949</v>
       </c>
       <c r="N9">
-        <v>1.00849764548321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011358628401103</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035361323406336</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027987343962879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.979857748927075</v>
+        <v>0.9913004575839042</v>
       </c>
       <c r="D10">
-        <v>0.9907579887963529</v>
+        <v>1.006995469150769</v>
       </c>
       <c r="E10">
-        <v>0.9953904864704962</v>
+        <v>1.008684617421231</v>
       </c>
       <c r="F10">
-        <v>0.9951364019837968</v>
+        <v>1.016811351167816</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041722405663721</v>
+        <v>1.042607690826929</v>
       </c>
       <c r="J10">
-        <v>1.008893958046109</v>
+        <v>1.019863537163442</v>
       </c>
       <c r="K10">
-        <v>1.005296139938973</v>
+        <v>1.021239556593829</v>
       </c>
       <c r="L10">
-        <v>1.009843468863497</v>
+        <v>1.022898819072611</v>
       </c>
       <c r="M10">
-        <v>1.009594028976111</v>
+        <v>1.030883563653177</v>
       </c>
       <c r="N10">
-        <v>1.006971816128831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010430880680087</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033066398453671</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02612533481319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9764513919203618</v>
+        <v>0.989318393084042</v>
       </c>
       <c r="D11">
-        <v>0.9878662201642288</v>
+        <v>1.00567487799782</v>
       </c>
       <c r="E11">
-        <v>0.9924878486882193</v>
+        <v>1.007498194809814</v>
       </c>
       <c r="F11">
-        <v>0.9917404956855028</v>
+        <v>1.016057238966479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040801322477305</v>
+        <v>1.04240217875287</v>
       </c>
       <c r="J11">
-        <v>1.006837728759247</v>
+        <v>1.019142391270046</v>
       </c>
       <c r="K11">
-        <v>1.003020647829133</v>
+        <v>1.020490562117929</v>
       </c>
       <c r="L11">
-        <v>1.007552837431025</v>
+        <v>1.022280078080892</v>
       </c>
       <c r="M11">
-        <v>1.006819873388097</v>
+        <v>1.030682562006108</v>
       </c>
       <c r="N11">
-        <v>1.006289735675486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01021693010117</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033346134854545</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02562901097135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,81 +963,105 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9751700748270323</v>
+        <v>0.9887607949414815</v>
       </c>
       <c r="D12">
-        <v>0.9867796862611796</v>
+        <v>1.005330351418068</v>
       </c>
       <c r="E12">
-        <v>0.991397518799494</v>
+        <v>1.007316204757622</v>
       </c>
       <c r="F12">
-        <v>0.9904648872865137</v>
+        <v>1.016182343891378</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040451877472713</v>
+        <v>1.042388859464966</v>
       </c>
       <c r="J12">
-        <v>1.006063767186598</v>
+        <v>1.01904855420977</v>
       </c>
       <c r="K12">
-        <v>1.002164626467857</v>
+        <v>1.020356137890363</v>
       </c>
       <c r="L12">
-        <v>1.006691405620001</v>
+        <v>1.022304567427911</v>
       </c>
       <c r="M12">
-        <v>1.005777073711122</v>
+        <v>1.031005946699969</v>
       </c>
       <c r="N12">
-        <v>1.006033009497588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010210310980442</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033929967902114</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025533966419423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.9754456623827845</v>
+        <v>0.9892761584931929</v>
       </c>
       <c r="D13">
-        <v>0.9870133234453446</v>
+        <v>1.005733201879507</v>
       </c>
       <c r="E13">
-        <v>0.9916319592816748</v>
+        <v>1.007908083196218</v>
       </c>
       <c r="F13">
-        <v>0.9907391660579313</v>
+        <v>1.017014395265417</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040527169653094</v>
+        <v>1.042532137909345</v>
       </c>
       <c r="J13">
-        <v>1.006230253704723</v>
+        <v>1.019447098909981</v>
       </c>
       <c r="K13">
-        <v>1.002348743629547</v>
+        <v>1.020707713159149</v>
       </c>
       <c r="L13">
-        <v>1.006876673708846</v>
+        <v>1.02284179857576</v>
       </c>
       <c r="M13">
-        <v>1.006001327607198</v>
+        <v>1.031779763235146</v>
       </c>
       <c r="N13">
-        <v>1.006088233350775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010369254769799</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034819635694544</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025780023438173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9763458103977168</v>
+        <v>0.9901233457023737</v>
       </c>
       <c r="D14">
-        <v>0.9877766637850529</v>
+        <v>1.00635595551518</v>
       </c>
       <c r="E14">
-        <v>0.9923979735969235</v>
+        <v>1.008671319064565</v>
       </c>
       <c r="F14">
-        <v>0.99163534821223</v>
+        <v>1.017914744416339</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040772587903129</v>
+        <v>1.042703225064969</v>
       </c>
       <c r="J14">
-        <v>1.006773963583577</v>
+        <v>1.019949107060117</v>
       </c>
       <c r="K14">
-        <v>1.002950112369485</v>
+        <v>1.021175808002433</v>
       </c>
       <c r="L14">
-        <v>1.007481850399098</v>
+        <v>1.023448295879472</v>
       </c>
       <c r="M14">
-        <v>1.00673393112507</v>
+        <v>1.032523078862896</v>
       </c>
       <c r="N14">
-        <v>1.006268584334598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010555634420806</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035581115467764</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026112432152841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.976898268208771</v>
+        <v>0.9905690167700951</v>
       </c>
       <c r="D15">
-        <v>0.9882453196918546</v>
+        <v>1.006678340642402</v>
       </c>
       <c r="E15">
-        <v>0.9928683090662458</v>
+        <v>1.009035976699644</v>
       </c>
       <c r="F15">
-        <v>0.9921856075153348</v>
+        <v>1.018306162366361</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040922821515167</v>
+        <v>1.042781288071337</v>
       </c>
       <c r="J15">
-        <v>1.007107596280497</v>
+        <v>1.020185968602718</v>
       </c>
       <c r="K15">
-        <v>1.003319187747892</v>
+        <v>1.021404168777812</v>
       </c>
       <c r="L15">
-        <v>1.007853300192986</v>
+        <v>1.02371848391348</v>
       </c>
       <c r="M15">
-        <v>1.007183655354536</v>
+        <v>1.032820858412793</v>
       </c>
       <c r="N15">
-        <v>1.006379252896844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010639829734462</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035854125459805</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026279837991598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9800816166878696</v>
+        <v>0.9928479021729387</v>
       </c>
       <c r="D16">
-        <v>0.9909482027380626</v>
+        <v>1.00828289425308</v>
       </c>
       <c r="E16">
-        <v>0.9955814554870523</v>
+        <v>1.0107553577272</v>
       </c>
       <c r="F16">
-        <v>0.9953598270779602</v>
+        <v>1.019987958724264</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041782522951649</v>
+        <v>1.043121543240907</v>
       </c>
       <c r="J16">
-        <v>1.009029022106034</v>
+        <v>1.021270481200216</v>
       </c>
       <c r="K16">
-        <v>1.005445671651403</v>
+        <v>1.022467948534625</v>
       </c>
       <c r="L16">
-        <v>1.009994035205596</v>
+        <v>1.024896983268902</v>
       </c>
       <c r="M16">
-        <v>1.009776443989388</v>
+        <v>1.033969818437785</v>
       </c>
       <c r="N16">
-        <v>1.007016619745121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011004456741625</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036723428370742</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027035190427879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9820508090434433</v>
+        <v>0.9941554180104115</v>
       </c>
       <c r="D17">
-        <v>0.9926222489943205</v>
+        <v>1.009191593927455</v>
       </c>
       <c r="E17">
-        <v>0.9972623674920968</v>
+        <v>1.011677023253302</v>
       </c>
       <c r="F17">
-        <v>0.9973264462878906</v>
+        <v>1.020803047388779</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042309023478855</v>
+        <v>1.043290604929445</v>
       </c>
       <c r="J17">
-        <v>1.01021666182166</v>
+        <v>1.021840062567542</v>
       </c>
       <c r="K17">
-        <v>1.006760885441554</v>
+        <v>1.023040357984307</v>
       </c>
       <c r="L17">
-        <v>1.011318568195169</v>
+        <v>1.02548336348425</v>
       </c>
       <c r="M17">
-        <v>1.011381515538481</v>
+        <v>1.03445589735943</v>
       </c>
       <c r="N17">
-        <v>1.007410589379606</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011186643169413</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036978201484401</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027442533327561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9831897207031813</v>
+        <v>0.9947343905247871</v>
       </c>
       <c r="D18">
-        <v>0.9935911818303871</v>
+        <v>1.009563997094485</v>
       </c>
       <c r="E18">
-        <v>0.9982354585597908</v>
+        <v>1.011964647932606</v>
       </c>
       <c r="F18">
-        <v>0.9984649641472404</v>
+        <v>1.020888865072965</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042611597873147</v>
+        <v>1.043323598258748</v>
       </c>
       <c r="J18">
-        <v>1.010903195956909</v>
+        <v>1.021997812876227</v>
       </c>
       <c r="K18">
-        <v>1.007521464466046</v>
+        <v>1.02321966062357</v>
       </c>
       <c r="L18">
-        <v>1.012084719958945</v>
+        <v>1.025580003163319</v>
       </c>
       <c r="M18">
-        <v>1.012310247020212</v>
+        <v>1.034356514493009</v>
       </c>
       <c r="N18">
-        <v>1.007638333007798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011220470881782</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036661090060747</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027557534048998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9835764427137319</v>
+        <v>0.9946717194850045</v>
       </c>
       <c r="D19">
-        <v>0.9939203076799022</v>
+        <v>1.009478362192261</v>
       </c>
       <c r="E19">
-        <v>0.9985660282492387</v>
+        <v>1.011687323857195</v>
       </c>
       <c r="F19">
-        <v>0.9988517369887018</v>
+        <v>1.020314276630387</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042714007545199</v>
+        <v>1.043243031796137</v>
       </c>
       <c r="J19">
-        <v>1.011136249551985</v>
+        <v>1.021801730948269</v>
       </c>
       <c r="K19">
-        <v>1.007779704393036</v>
+        <v>1.023071791353059</v>
       </c>
       <c r="L19">
-        <v>1.012344883296624</v>
+        <v>1.025243844748323</v>
       </c>
       <c r="M19">
-        <v>1.012625670397692</v>
+        <v>1.033728621811058</v>
       </c>
       <c r="N19">
-        <v>1.00771564422566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011129783947864</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035837692577166</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027459454837616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9818405411612551</v>
+        <v>0.9927898324569262</v>
       </c>
       <c r="D20">
-        <v>0.9924434209338363</v>
+        <v>1.008070941442613</v>
       </c>
       <c r="E20">
-        <v>0.9970827869052726</v>
+        <v>1.009831331547282</v>
       </c>
       <c r="F20">
-        <v>0.9971163393287622</v>
+        <v>1.017941501246893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042253004630909</v>
+        <v>1.042840207363678</v>
       </c>
       <c r="J20">
-        <v>1.010089883594348</v>
+        <v>1.020601551500124</v>
       </c>
       <c r="K20">
-        <v>1.006620457955506</v>
+        <v>1.02197334230357</v>
       </c>
       <c r="L20">
-        <v>1.011177126678537</v>
+        <v>1.023703483972418</v>
       </c>
       <c r="M20">
-        <v>1.011210084662086</v>
+        <v>1.031676040493965</v>
       </c>
       <c r="N20">
-        <v>1.007368533540292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010684529605422</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033682946188808</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026686760829512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9760811894420109</v>
+        <v>0.9884728258910606</v>
       </c>
       <c r="D21">
-        <v>0.987552226796392</v>
+        <v>1.005010916701182</v>
       </c>
       <c r="E21">
-        <v>0.9921727425109275</v>
+        <v>1.006460217042615</v>
       </c>
       <c r="F21">
-        <v>0.991371843886854</v>
+        <v>1.014532840052292</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040700522271555</v>
+        <v>1.042159420259166</v>
       </c>
       <c r="J21">
-        <v>1.006614139843848</v>
+        <v>1.018460526430249</v>
       </c>
       <c r="K21">
-        <v>1.00277332686728</v>
+        <v>1.01989797355974</v>
       </c>
       <c r="L21">
-        <v>1.007303937673791</v>
+        <v>1.021320223607251</v>
       </c>
       <c r="M21">
-        <v>1.006518544053613</v>
+        <v>1.02924401673235</v>
       </c>
       <c r="N21">
-        <v>1.006215569852501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009950174825739</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031717013723841</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025222632974566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.972366750088679</v>
+        <v>0.9857262337748545</v>
       </c>
       <c r="D22">
-        <v>0.9844048330987029</v>
+        <v>1.003067224285931</v>
       </c>
       <c r="E22">
-        <v>0.9890148941664906</v>
+        <v>1.00434319023726</v>
       </c>
       <c r="F22">
-        <v>0.9876773671517898</v>
+        <v>1.012422624270899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039681967030318</v>
+        <v>1.041718535585177</v>
       </c>
       <c r="J22">
-        <v>1.004369599516016</v>
+        <v>1.017105957133025</v>
       </c>
       <c r="K22">
-        <v>1.000291695789358</v>
+        <v>1.018578162766905</v>
       </c>
       <c r="L22">
-        <v>1.004807155009626</v>
+        <v>1.01982909590686</v>
       </c>
       <c r="M22">
-        <v>1.003496955097866</v>
+        <v>1.027751939156499</v>
       </c>
       <c r="N22">
-        <v>1.005471064583601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009486233774277</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030536118740218</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024275764422776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9743449960516606</v>
+        <v>0.987175747595931</v>
       </c>
       <c r="D23">
-        <v>0.9860803860042157</v>
+        <v>1.004083723882832</v>
       </c>
       <c r="E23">
-        <v>0.990695856108281</v>
+        <v>1.005458942735134</v>
       </c>
       <c r="F23">
-        <v>0.9896439904802418</v>
+        <v>1.013536472693856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040226031537701</v>
+        <v>1.041949979734974</v>
       </c>
       <c r="J23">
-        <v>1.005565255831468</v>
+        <v>1.017815635112574</v>
       </c>
       <c r="K23">
-        <v>1.001613392301404</v>
+        <v>1.019263766306251</v>
       </c>
       <c r="L23">
-        <v>1.006136766972089</v>
+        <v>1.020612703146077</v>
       </c>
       <c r="M23">
-        <v>1.005105790545988</v>
+        <v>1.028537741249901</v>
       </c>
       <c r="N23">
-        <v>1.005867653809407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009728418866483</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031158036888183</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02475076442826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.981935582032145</v>
+        <v>0.9927953562633397</v>
       </c>
       <c r="D24">
-        <v>0.9925242487986359</v>
+        <v>1.008055277111509</v>
       </c>
       <c r="E24">
-        <v>0.9971639543299592</v>
+        <v>1.009802393568714</v>
       </c>
       <c r="F24">
-        <v>0.9972113040713209</v>
+        <v>1.017873984231588</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042278331101141</v>
+        <v>1.042828106011105</v>
       </c>
       <c r="J24">
-        <v>1.010147188330321</v>
+        <v>1.020573591769466</v>
       </c>
       <c r="K24">
-        <v>1.006683931334957</v>
+        <v>1.021942394514709</v>
       </c>
       <c r="L24">
-        <v>1.011241057831354</v>
+        <v>1.023659527509984</v>
       </c>
       <c r="M24">
-        <v>1.011287569963697</v>
+        <v>1.03159431872424</v>
       </c>
       <c r="N24">
-        <v>1.007387543094167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010670936314165</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03357714072789</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026637131726406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9903666738947393</v>
+        <v>0.9991090516506381</v>
       </c>
       <c r="D25">
-        <v>0.9997092850086752</v>
+        <v>1.012549809035161</v>
       </c>
       <c r="E25">
-        <v>1.004383133355408</v>
+        <v>1.014714533008142</v>
       </c>
       <c r="F25">
-        <v>1.005658558642795</v>
+        <v>1.022788906861627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044483137376863</v>
+        <v>1.043766108963704</v>
       </c>
       <c r="J25">
-        <v>1.015222644737855</v>
+        <v>1.023666437008488</v>
       </c>
       <c r="K25">
-        <v>1.012312115629872</v>
+        <v>1.024956379804127</v>
       </c>
       <c r="L25">
-        <v>1.016913785756155</v>
+        <v>1.027088639790669</v>
       </c>
       <c r="M25">
-        <v>1.018169663294515</v>
+        <v>1.035043462566667</v>
       </c>
       <c r="N25">
-        <v>1.009071254783115</v>
+        <v>1.011727454754</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036306928089167</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028765326191766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003958433235852</v>
+        <v>1.004347452097277</v>
       </c>
       <c r="D2">
-        <v>1.016001701612962</v>
+        <v>1.01625869523531</v>
       </c>
       <c r="E2">
-        <v>1.018509964303395</v>
+        <v>1.018831826456854</v>
       </c>
       <c r="F2">
-        <v>1.026599297187983</v>
+        <v>1.026856604275698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044439540639994</v>
+        <v>1.04457492683707</v>
       </c>
       <c r="J2">
-        <v>1.026021389436532</v>
+        <v>1.026398904627264</v>
       </c>
       <c r="K2">
-        <v>1.027242519254707</v>
+        <v>1.027496073942521</v>
       </c>
       <c r="L2">
-        <v>1.029717311011832</v>
+        <v>1.030034893125858</v>
       </c>
       <c r="M2">
-        <v>1.037700093597331</v>
+        <v>1.037954046016416</v>
       </c>
       <c r="N2">
-        <v>1.012529222607267</v>
+        <v>1.014168776049657</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038409482647236</v>
+        <v>1.038610469516843</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03033294464863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030521103497001</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019368727394775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00741324997988</v>
+        <v>1.007656753115566</v>
       </c>
       <c r="D3">
-        <v>1.018488640154777</v>
+        <v>1.018523181011814</v>
       </c>
       <c r="E3">
-        <v>1.021228252647148</v>
+        <v>1.021431786672565</v>
       </c>
       <c r="F3">
-        <v>1.029329539871872</v>
+        <v>1.02949169113602</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044899021361265</v>
+        <v>1.044986801105309</v>
       </c>
       <c r="J3">
-        <v>1.027703842347278</v>
+        <v>1.027940841528323</v>
       </c>
       <c r="K3">
-        <v>1.028890296944918</v>
+        <v>1.02892441559402</v>
       </c>
       <c r="L3">
-        <v>1.031596532168986</v>
+        <v>1.031797595373532</v>
       </c>
       <c r="M3">
-        <v>1.039600408616246</v>
+        <v>1.039760629556515</v>
       </c>
       <c r="N3">
-        <v>1.013103091895578</v>
+        <v>1.014586026660232</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039913457372711</v>
+        <v>1.040040261596551</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031495398694113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031528114550947</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019659319125112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009611880392361</v>
+        <v>1.009763796813873</v>
       </c>
       <c r="D4">
-        <v>1.020077948174977</v>
+        <v>1.019971435813367</v>
       </c>
       <c r="E4">
-        <v>1.022964168606075</v>
+        <v>1.023093147878168</v>
       </c>
       <c r="F4">
-        <v>1.031074996420934</v>
+        <v>1.031177237353619</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045180086493377</v>
+        <v>1.045237809518849</v>
       </c>
       <c r="J4">
-        <v>1.028772868595293</v>
+        <v>1.028920998855155</v>
       </c>
       <c r="K4">
-        <v>1.029939941966302</v>
+        <v>1.029834653528491</v>
       </c>
       <c r="L4">
-        <v>1.032793116811007</v>
+        <v>1.032920624712772</v>
       </c>
       <c r="M4">
-        <v>1.040812299809197</v>
+        <v>1.040913396841737</v>
       </c>
       <c r="N4">
-        <v>1.013467617038027</v>
+        <v>1.014851230557867</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040872588139546</v>
+        <v>1.040952599616676</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03223850951768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032172730849934</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019842263925915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010531073879295</v>
+        <v>1.010644841113849</v>
       </c>
       <c r="D5">
-        <v>1.020746861754943</v>
+        <v>1.020581426402694</v>
       </c>
       <c r="E5">
-        <v>1.023691477888942</v>
+        <v>1.023789381971829</v>
       </c>
       <c r="F5">
-        <v>1.031806155366647</v>
+        <v>1.031883435721436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045295633244445</v>
+        <v>1.045340810641457</v>
       </c>
       <c r="J5">
-        <v>1.029221077846362</v>
+        <v>1.029332093515083</v>
       </c>
       <c r="K5">
-        <v>1.030382687305392</v>
+        <v>1.030219102632592</v>
       </c>
       <c r="L5">
-        <v>1.033294485932632</v>
+        <v>1.033391302870833</v>
       </c>
       <c r="M5">
-        <v>1.041319915979779</v>
+        <v>1.041396354666235</v>
       </c>
       <c r="N5">
-        <v>1.013620662110663</v>
+        <v>1.014962638177724</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041274331984608</v>
+        <v>1.041334828012444</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032558817489418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032452528081368</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019919560418249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010689153120268</v>
+        <v>1.010796259203411</v>
       </c>
       <c r="D6">
-        <v>1.020865500380592</v>
+        <v>1.020689851769017</v>
       </c>
       <c r="E6">
-        <v>1.023816821130671</v>
+        <v>1.023909293243532</v>
       </c>
       <c r="F6">
-        <v>1.03193145255029</v>
+        <v>1.032004371350033</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045316326878537</v>
+        <v>1.045359305750456</v>
       </c>
       <c r="J6">
-        <v>1.02930020495969</v>
+        <v>1.029404733768323</v>
       </c>
       <c r="K6">
-        <v>1.03046332227676</v>
+        <v>1.030289629636128</v>
       </c>
       <c r="L6">
-        <v>1.033381901397934</v>
+        <v>1.033473351384325</v>
       </c>
       <c r="M6">
-        <v>1.041407694485422</v>
+        <v>1.041479822745791</v>
       </c>
       <c r="N6">
-        <v>1.013647970123455</v>
+        <v>1.014982547433535</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041343802708583</v>
+        <v>1.041400887321629</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032624666781726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032512098997751</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.0199344018542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009635639482757</v>
+        <v>1.009792816584823</v>
       </c>
       <c r="D7">
-        <v>1.020104631028681</v>
+        <v>1.020001559791003</v>
       </c>
       <c r="E7">
-        <v>1.022983454529602</v>
+        <v>1.023116831851958</v>
       </c>
       <c r="F7">
-        <v>1.031092395220575</v>
+        <v>1.031198138020953</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045185745524734</v>
+        <v>1.045245371267091</v>
       </c>
       <c r="J7">
-        <v>1.02879003372096</v>
+        <v>1.028943295257453</v>
       </c>
       <c r="K7">
-        <v>1.02996339616218</v>
+        <v>1.029861508829281</v>
       </c>
       <c r="L7">
-        <v>1.032809271613092</v>
+        <v>1.032941127980116</v>
       </c>
       <c r="M7">
-        <v>1.040826623417609</v>
+        <v>1.040931183586396</v>
       </c>
       <c r="N7">
-        <v>1.013474271626038</v>
+        <v>1.014883685498315</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040883924309289</v>
+        <v>1.040966676623539</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032275410607321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032214035926335</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019850127403855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005148261678628</v>
+        <v>1.00550674348764</v>
       </c>
       <c r="D8">
-        <v>1.016868486141975</v>
+        <v>1.017064477497783</v>
       </c>
       <c r="E8">
-        <v>1.019445555297609</v>
+        <v>1.019743031211205</v>
       </c>
       <c r="F8">
-        <v>1.027536098891366</v>
+        <v>1.0277736664778</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044603403674232</v>
+        <v>1.044729449496602</v>
       </c>
       <c r="J8">
-        <v>1.026608170587035</v>
+        <v>1.026956403879618</v>
       </c>
       <c r="K8">
-        <v>1.027824709932746</v>
+        <v>1.028018156225729</v>
       </c>
       <c r="L8">
-        <v>1.030368412117752</v>
+        <v>1.030662050001178</v>
       </c>
       <c r="M8">
-        <v>1.038355559957065</v>
+        <v>1.038590122178727</v>
       </c>
       <c r="N8">
-        <v>1.012730433159668</v>
+        <v>1.014398883115986</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038928241645523</v>
+        <v>1.039113882298955</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030767767489842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030915688064202</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019479572592109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9969289212326622</v>
+        <v>0.9976433671432854</v>
       </c>
       <c r="D9">
-        <v>1.010979586236664</v>
+        <v>1.011710760933024</v>
       </c>
       <c r="E9">
-        <v>1.01301338404102</v>
+        <v>1.013599836792237</v>
       </c>
       <c r="F9">
-        <v>1.021088721099362</v>
+        <v>1.021558944283612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043444614355491</v>
+        <v>1.043686639103087</v>
       </c>
       <c r="J9">
-        <v>1.022590595265031</v>
+        <v>1.023279619536383</v>
       </c>
       <c r="K9">
-        <v>1.023897004016791</v>
+        <v>1.024616654149809</v>
       </c>
       <c r="L9">
-        <v>1.02589879842587</v>
+        <v>1.026476053400325</v>
       </c>
       <c r="M9">
-        <v>1.03384866961949</v>
+        <v>1.034311664980599</v>
       </c>
       <c r="N9">
-        <v>1.011358628401103</v>
+        <v>1.013412618733209</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035361323406336</v>
+        <v>1.035727755733854</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027987343962879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.0285070646442</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018773274009316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9913004575839042</v>
+        <v>0.9922922606241468</v>
       </c>
       <c r="D10">
-        <v>1.006995469150769</v>
+        <v>1.008117035147172</v>
       </c>
       <c r="E10">
-        <v>1.008684617421231</v>
+        <v>1.009496000763107</v>
       </c>
       <c r="F10">
-        <v>1.016811351167816</v>
+        <v>1.017462755403417</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042607690826929</v>
+        <v>1.042940236854692</v>
       </c>
       <c r="J10">
-        <v>1.019863537163442</v>
+        <v>1.02081506011255</v>
       </c>
       <c r="K10">
-        <v>1.021239556593829</v>
+        <v>1.022341264438215</v>
       </c>
       <c r="L10">
-        <v>1.022898819072611</v>
+        <v>1.023695892856879</v>
       </c>
       <c r="M10">
-        <v>1.030883563653177</v>
+        <v>1.031523713645577</v>
       </c>
       <c r="N10">
-        <v>1.010430880680087</v>
+        <v>1.012864715235767</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033066398453671</v>
+        <v>1.033573007382577</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02612533481319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026916882762166</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018296987502745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.989318393084042</v>
+        <v>0.9904365891170419</v>
       </c>
       <c r="D11">
-        <v>1.00567487799782</v>
+        <v>1.006948888948188</v>
       </c>
       <c r="E11">
-        <v>1.007498194809814</v>
+        <v>1.008410771944999</v>
       </c>
       <c r="F11">
-        <v>1.016057238966479</v>
+        <v>1.016789681690499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04240217875287</v>
+        <v>1.042775629815886</v>
       </c>
       <c r="J11">
-        <v>1.019142391270046</v>
+        <v>1.020212701030023</v>
       </c>
       <c r="K11">
-        <v>1.020490562117929</v>
+        <v>1.021740938513304</v>
       </c>
       <c r="L11">
-        <v>1.022280078080892</v>
+        <v>1.023175797579359</v>
       </c>
       <c r="M11">
-        <v>1.030682562006108</v>
+        <v>1.031401766209871</v>
       </c>
       <c r="N11">
-        <v>1.01021693010117</v>
+        <v>1.012952847596519</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033346134854545</v>
+        <v>1.033915016960869</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02562901097135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026528882574426</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018210200519307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,105 +1059,123 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9887607949414815</v>
+        <v>0.9899129806018673</v>
       </c>
       <c r="D12">
-        <v>1.005330351418068</v>
+        <v>1.006642412362486</v>
       </c>
       <c r="E12">
-        <v>1.007316204757622</v>
+        <v>1.008254747687193</v>
       </c>
       <c r="F12">
-        <v>1.016182343891378</v>
+        <v>1.016935519496678</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042388859464966</v>
+        <v>1.042772386497938</v>
       </c>
       <c r="J12">
-        <v>1.01904855420977</v>
+        <v>1.020150462485692</v>
       </c>
       <c r="K12">
-        <v>1.020356137890363</v>
+        <v>1.02164345116442</v>
       </c>
       <c r="L12">
-        <v>1.022304567427911</v>
+        <v>1.023225490312231</v>
       </c>
       <c r="M12">
-        <v>1.031005946699969</v>
+        <v>1.031745298431919</v>
       </c>
       <c r="N12">
-        <v>1.010210310980442</v>
+        <v>1.013055458628115</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033929967902114</v>
+        <v>1.034514586585534</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025533966419423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026459955853697</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018217696086008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9892761584931929</v>
+        <v>0.9903828246664381</v>
       </c>
       <c r="D13">
-        <v>1.005733201879507</v>
+        <v>1.006988940707565</v>
       </c>
       <c r="E13">
-        <v>1.007908083196218</v>
+        <v>1.00880783769238</v>
       </c>
       <c r="F13">
-        <v>1.017014395265417</v>
+        <v>1.01773646212699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042532137909345</v>
+        <v>1.042899008059181</v>
       </c>
       <c r="J13">
-        <v>1.019447098909981</v>
+        <v>1.020505719547304</v>
       </c>
       <c r="K13">
-        <v>1.020707713159149</v>
+        <v>1.021939869067923</v>
       </c>
       <c r="L13">
-        <v>1.02284179857576</v>
+        <v>1.023724742820864</v>
       </c>
       <c r="M13">
-        <v>1.031779763235146</v>
+        <v>1.032488649108547</v>
       </c>
       <c r="N13">
-        <v>1.010369254769799</v>
+        <v>1.013144955744096</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034819635694544</v>
+        <v>1.035380022559693</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025780023438173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026666767378927</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018303394765582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9901233457023737</v>
+        <v>0.9911626762334524</v>
       </c>
       <c r="D14">
-        <v>1.00635595551518</v>
+        <v>1.007529994144044</v>
       </c>
       <c r="E14">
-        <v>1.008671319064565</v>
+        <v>1.009515182289841</v>
       </c>
       <c r="F14">
-        <v>1.017914744416339</v>
+        <v>1.018592032432018</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042703225064969</v>
+        <v>1.043046626762477</v>
       </c>
       <c r="J14">
-        <v>1.019949107060117</v>
+        <v>1.020943963101923</v>
       </c>
       <c r="K14">
-        <v>1.021175808002433</v>
+        <v>1.022328073789737</v>
       </c>
       <c r="L14">
-        <v>1.023448295879472</v>
+        <v>1.024276596252762</v>
       </c>
       <c r="M14">
-        <v>1.032523078862896</v>
+        <v>1.03318816645366</v>
       </c>
       <c r="N14">
-        <v>1.010555634420806</v>
+        <v>1.013202953191007</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035581115467764</v>
+        <v>1.036106807691181</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026112432152841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026942821432028</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018399613440905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9905690167700951</v>
+        <v>0.9915750361597628</v>
       </c>
       <c r="D15">
-        <v>1.006678340642402</v>
+        <v>1.007811960648231</v>
       </c>
       <c r="E15">
-        <v>1.009035976699644</v>
+        <v>1.009852518855375</v>
       </c>
       <c r="F15">
-        <v>1.018306162366361</v>
+        <v>1.018961546809446</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042781288071337</v>
+        <v>1.043113364672951</v>
       </c>
       <c r="J15">
-        <v>1.020185968602718</v>
+        <v>1.021149314101582</v>
       </c>
       <c r="K15">
-        <v>1.021404168777812</v>
+        <v>1.022516925867653</v>
       </c>
       <c r="L15">
-        <v>1.02371848391348</v>
+        <v>1.024520083727384</v>
       </c>
       <c r="M15">
-        <v>1.032820858412793</v>
+        <v>1.033464528980083</v>
       </c>
       <c r="N15">
-        <v>1.010639829734462</v>
+        <v>1.013219219695195</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035854125459805</v>
+        <v>1.036362876012572</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026279837991598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027082858732506</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018442708079382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9928479021729387</v>
+        <v>0.9937011751748714</v>
       </c>
       <c r="D16">
-        <v>1.00828289425308</v>
+        <v>1.009227395974563</v>
       </c>
       <c r="E16">
-        <v>1.0107553577272</v>
+        <v>1.011448096660565</v>
       </c>
       <c r="F16">
-        <v>1.019987958724264</v>
+        <v>1.020543928194615</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043121543240907</v>
+        <v>1.043403146602045</v>
       </c>
       <c r="J16">
-        <v>1.021270481200216</v>
+        <v>1.022089357075145</v>
       </c>
       <c r="K16">
-        <v>1.022467948534625</v>
+        <v>1.023395827560132</v>
       </c>
       <c r="L16">
-        <v>1.024896983268902</v>
+        <v>1.025577603585918</v>
       </c>
       <c r="M16">
-        <v>1.033969818437785</v>
+        <v>1.034516286323626</v>
       </c>
       <c r="N16">
-        <v>1.011004456741625</v>
+        <v>1.013263416822358</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036723428370742</v>
+        <v>1.037155363315255</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027035190427879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027707787847836</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018621897447953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9941554180104115</v>
+        <v>0.9949341486035935</v>
       </c>
       <c r="D17">
-        <v>1.009191593927455</v>
+        <v>1.010039461723627</v>
       </c>
       <c r="E17">
-        <v>1.011677023253302</v>
+        <v>1.012309969479834</v>
       </c>
       <c r="F17">
-        <v>1.020803047388779</v>
+        <v>1.021310929876426</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043290604929445</v>
+        <v>1.043548251728857</v>
       </c>
       <c r="J17">
-        <v>1.021840062567542</v>
+        <v>1.022588401646222</v>
       </c>
       <c r="K17">
-        <v>1.023040357984307</v>
+        <v>1.023873723201965</v>
       </c>
       <c r="L17">
-        <v>1.02548336348425</v>
+        <v>1.026105548909018</v>
       </c>
       <c r="M17">
-        <v>1.03445589735943</v>
+        <v>1.03495534154512</v>
       </c>
       <c r="N17">
-        <v>1.011186643169413</v>
+        <v>1.013295854257373</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036978201484401</v>
+        <v>1.037373007828812</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027442533327561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028048549713267</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018710417612106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9947343905247871</v>
+        <v>0.9954903118218739</v>
       </c>
       <c r="D18">
-        <v>1.009563997094485</v>
+        <v>1.010379989678455</v>
       </c>
       <c r="E18">
-        <v>1.011964647932606</v>
+        <v>1.012580230928736</v>
       </c>
       <c r="F18">
-        <v>1.020888865072965</v>
+        <v>1.021382722734948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043323598258748</v>
+        <v>1.04357480050476</v>
       </c>
       <c r="J18">
-        <v>1.021997812876227</v>
+        <v>1.022724779046015</v>
       </c>
       <c r="K18">
-        <v>1.02321966062357</v>
+        <v>1.024021924518569</v>
       </c>
       <c r="L18">
-        <v>1.025580003163319</v>
+        <v>1.026185289843608</v>
       </c>
       <c r="M18">
-        <v>1.034356514493009</v>
+        <v>1.034842295133354</v>
       </c>
       <c r="N18">
-        <v>1.011220470881782</v>
+        <v>1.013277582221564</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036661090060747</v>
+        <v>1.037045176042262</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027557534048998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028140427619936</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018720509264809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9946717194850045</v>
+        <v>0.9954441015758879</v>
       </c>
       <c r="D19">
-        <v>1.009478362192261</v>
+        <v>1.010314586952155</v>
       </c>
       <c r="E19">
-        <v>1.011687323857195</v>
+        <v>1.012317690655911</v>
       </c>
       <c r="F19">
-        <v>1.020314276630387</v>
+        <v>1.020819996516333</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043243031796137</v>
+        <v>1.043500914384773</v>
       </c>
       <c r="J19">
-        <v>1.021801730948269</v>
+        <v>1.022544696112764</v>
       </c>
       <c r="K19">
-        <v>1.023071791353059</v>
+        <v>1.023894019650629</v>
       </c>
       <c r="L19">
-        <v>1.025243844748323</v>
+        <v>1.025863717157245</v>
       </c>
       <c r="M19">
-        <v>1.033728621811058</v>
+        <v>1.034226103022659</v>
       </c>
       <c r="N19">
-        <v>1.011129783947864</v>
+        <v>1.013200319121793</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035837692577166</v>
+        <v>1.036231159304694</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027459454837616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028057087903857</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018668124769956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9927898324569262</v>
+        <v>0.9936881528647855</v>
       </c>
       <c r="D20">
-        <v>1.008070941442613</v>
+        <v>1.009073224385726</v>
       </c>
       <c r="E20">
-        <v>1.009831331547282</v>
+        <v>1.010566396918459</v>
       </c>
       <c r="F20">
-        <v>1.017941501246893</v>
+        <v>1.018531560929201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042840207363678</v>
+        <v>1.043141535124687</v>
       </c>
       <c r="J20">
-        <v>1.020601551500124</v>
+        <v>1.021464572764233</v>
       </c>
       <c r="K20">
-        <v>1.02197334230357</v>
+        <v>1.022958386491242</v>
       </c>
       <c r="L20">
-        <v>1.023703483972418</v>
+        <v>1.024425959159919</v>
       </c>
       <c r="M20">
-        <v>1.031676040493965</v>
+        <v>1.032256198305354</v>
       </c>
       <c r="N20">
-        <v>1.010684529605422</v>
+        <v>1.012943638792512</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033682946188808</v>
+        <v>1.034142083415976</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026686760829512</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027399905939382</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018430235332389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9884728258910606</v>
+        <v>0.9896799227446019</v>
       </c>
       <c r="D21">
-        <v>1.005010916701182</v>
+        <v>1.00638982682633</v>
       </c>
       <c r="E21">
-        <v>1.006460217042615</v>
+        <v>1.007448412910864</v>
       </c>
       <c r="F21">
-        <v>1.014532840052292</v>
+        <v>1.015326233100595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042159420259166</v>
+        <v>1.042565148294201</v>
       </c>
       <c r="J21">
-        <v>1.018460526430249</v>
+        <v>1.01961554996403</v>
       </c>
       <c r="K21">
-        <v>1.01989797355974</v>
+        <v>1.021251144832078</v>
       </c>
       <c r="L21">
-        <v>1.021320223607251</v>
+        <v>1.022290033617986</v>
       </c>
       <c r="M21">
-        <v>1.02924401673235</v>
+        <v>1.030022948705977</v>
       </c>
       <c r="N21">
-        <v>1.009950174825739</v>
+        <v>1.012857438203406</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031717013723841</v>
+        <v>1.032333493516815</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025222632974566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026196397177887</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018070145116252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9857262337748545</v>
+        <v>0.987130014905102</v>
       </c>
       <c r="D22">
-        <v>1.003067224285931</v>
+        <v>1.004685246033168</v>
       </c>
       <c r="E22">
-        <v>1.00434319023726</v>
+        <v>1.005492585835058</v>
       </c>
       <c r="F22">
-        <v>1.012422624270899</v>
+        <v>1.013345511760259</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041718535585177</v>
+        <v>1.042190897517194</v>
       </c>
       <c r="J22">
-        <v>1.017105957133025</v>
+        <v>1.018445665244097</v>
       </c>
       <c r="K22">
-        <v>1.018578162766905</v>
+        <v>1.020164455188195</v>
       </c>
       <c r="L22">
-        <v>1.01982909590686</v>
+        <v>1.020956013191073</v>
       </c>
       <c r="M22">
-        <v>1.027751939156499</v>
+        <v>1.028657147744251</v>
       </c>
       <c r="N22">
-        <v>1.009486233774277</v>
+        <v>1.012797246493444</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030536118740218</v>
+        <v>1.031252540362059</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024275764422776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025413069146514</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01783926416761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.987175747595931</v>
+        <v>0.9884650484539609</v>
       </c>
       <c r="D23">
-        <v>1.004083723882832</v>
+        <v>1.005567099182409</v>
       </c>
       <c r="E23">
-        <v>1.005458942735134</v>
+        <v>1.006514269435175</v>
       </c>
       <c r="F23">
-        <v>1.013536472693856</v>
+        <v>1.014383863917484</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041949979734974</v>
+        <v>1.042383218614477</v>
       </c>
       <c r="J23">
-        <v>1.017815635112574</v>
+        <v>1.019047807967359</v>
       </c>
       <c r="K23">
-        <v>1.019263766306251</v>
+        <v>1.020718796588414</v>
       </c>
       <c r="L23">
-        <v>1.020612703146077</v>
+        <v>1.021647925037811</v>
       </c>
       <c r="M23">
-        <v>1.028537741249901</v>
+        <v>1.029369318631868</v>
       </c>
       <c r="N23">
-        <v>1.009728418866483</v>
+        <v>1.012784124996618</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031158036888183</v>
+        <v>1.031816182997014</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02475076442826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025794318028542</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017954442127439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9927953562633397</v>
+        <v>0.9936951692621765</v>
       </c>
       <c r="D24">
-        <v>1.008055277111509</v>
+        <v>1.009059355955305</v>
       </c>
       <c r="E24">
-        <v>1.009802393568714</v>
+        <v>1.010538877962166</v>
       </c>
       <c r="F24">
-        <v>1.017873984231588</v>
+        <v>1.018465199220205</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042828106011105</v>
+        <v>1.04313009911269</v>
       </c>
       <c r="J24">
-        <v>1.020573591769466</v>
+        <v>1.021438097359174</v>
       </c>
       <c r="K24">
-        <v>1.021942394514709</v>
+        <v>1.022929225273898</v>
       </c>
       <c r="L24">
-        <v>1.023659527509984</v>
+        <v>1.024383412722071</v>
       </c>
       <c r="M24">
-        <v>1.03159431872424</v>
+        <v>1.032175623499812</v>
       </c>
       <c r="N24">
-        <v>1.010670936314165</v>
+        <v>1.012929551072295</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03357714072789</v>
+        <v>1.034037208806936</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026637131726406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02734887578975</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.0184181388203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9991090516506381</v>
+        <v>0.9997192871001346</v>
       </c>
       <c r="D25">
-        <v>1.012549809035161</v>
+        <v>1.013131526164702</v>
       </c>
       <c r="E25">
-        <v>1.014714533008142</v>
+        <v>1.015216264544762</v>
       </c>
       <c r="F25">
-        <v>1.022788906861627</v>
+        <v>1.023190932698601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043766108963704</v>
+        <v>1.043973965138333</v>
       </c>
       <c r="J25">
-        <v>1.023666437008488</v>
+        <v>1.024256102048452</v>
       </c>
       <c r="K25">
-        <v>1.024956379804127</v>
+        <v>1.025529355673797</v>
       </c>
       <c r="L25">
-        <v>1.027088639790669</v>
+        <v>1.027582872087363</v>
       </c>
       <c r="M25">
-        <v>1.035043462566667</v>
+        <v>1.035439598503994</v>
       </c>
       <c r="N25">
-        <v>1.011727454754</v>
+        <v>1.013645296812453</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036306928089167</v>
+        <v>1.036620444892039</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028765326191766</v>
+        <v>1.029184132169388</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018967024877015</v>
       </c>
     </row>
   </sheetData>
